--- a/Plotting/result_data_long.xlsx
+++ b/Plotting/result_data_long.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EHubversions\AdOpT-NET0_Julia\Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E3E10C-7D7E-454A-B441-5D1A70218A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CFCA00-FC60-4ECC-A002-411485FFA7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57045" yWindow="-7590" windowWidth="23355" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54600" yWindow="-7590" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,10 @@
     <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_cluster\20240722214700_minC_highCO2tax-1\optimization_results.h5</t>
   </si>
   <si>
-    <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_cluster\20240722173608_minC_refCO2tax-1\optimization_results.h5</t>
-  </si>
-  <si>
-    <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_cluster\20240722204239_minC_highCO2tax-1\optimization_results.h5</t>
+    <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_cluster\20240724180241_minC_refCO2tax-1\optimization_results.h5</t>
+  </si>
+  <si>
+    <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_cluster\20240724201955_minC_highCO2tax-1\optimization_results.h5</t>
   </si>
   <si>
     <t>costs_tot</t>
@@ -567,7 +567,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -655,10 +657,10 @@
         <v>4611300591.4939365</v>
       </c>
       <c r="E6">
-        <v>6215207029.1102333</v>
+        <v>6215132653.5687733</v>
       </c>
       <c r="F6">
-        <v>6215207029.1102333</v>
+        <v>6418481220.3732557</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -672,10 +674,10 @@
         <v>1425585.5938919701</v>
       </c>
       <c r="E7">
-        <v>2258128.62513474</v>
+        <v>2258048.9480467672</v>
       </c>
       <c r="F7">
-        <v>2258128.62513474</v>
+        <v>1917224.6363295801</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -692,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>116.4818748007058</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -723,10 +725,10 @@
         <v>20.615142629504419</v>
       </c>
       <c r="E10">
-        <v>399.48983016505389</v>
+        <v>400.92277397305787</v>
       </c>
       <c r="F10">
-        <v>399.48983016505389</v>
+        <v>338.09855224232751</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -740,10 +742,10 @@
         <v>23.568840779634101</v>
       </c>
       <c r="E11">
-        <v>296.8390174513213</v>
+        <v>295.45161350392868</v>
       </c>
       <c r="F11">
-        <v>296.8390174513213</v>
+        <v>348.11055163472429</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -760,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>69.96708906306911</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -774,10 +776,10 @@
         <v>814.35627965921196</v>
       </c>
       <c r="E13">
-        <v>1289.1527202393611</v>
+        <v>1290.3258473548849</v>
       </c>
       <c r="F13">
-        <v>1289.1527202393611</v>
+        <v>1319.066888918338</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -791,10 +793,10 @@
         <v>1070.7176776276181</v>
       </c>
       <c r="E14">
-        <v>1694.02459952604</v>
+        <v>1695.566159467626</v>
       </c>
       <c r="F14">
-        <v>1694.02459952604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -811,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1637.0562282111621</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -859,10 +861,10 @@
         <v>368.33620746731009</v>
       </c>
       <c r="E18">
-        <v>687.60330578511025</v>
+        <v>687.60330578512367</v>
       </c>
       <c r="F18">
-        <v>687.60330578511025</v>
+        <v>687.60330578511525</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -876,10 +878,10 @@
         <v>680.76993305813926</v>
       </c>
       <c r="E19">
-        <v>5964.6587140546781</v>
+        <v>5686.0210287470954</v>
       </c>
       <c r="F19">
-        <v>5964.6587140546781</v>
+        <v>11514.62491641847</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1443.2989690721649</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -910,10 +912,10 @@
         <v>117.6969645712918</v>
       </c>
       <c r="E21">
-        <v>15.772073054386571</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>15.772073054386571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -927,10 +929,10 @@
         <v>197.97801613431469</v>
       </c>
       <c r="E22">
-        <v>54.422661158111516</v>
+        <v>54.093626301425992</v>
       </c>
       <c r="F22">
-        <v>54.422661158111516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -978,10 +980,10 @@
         <v>1070.7176776276181</v>
       </c>
       <c r="E25">
-        <v>1694.0245995259979</v>
+        <v>1695.566159467626</v>
       </c>
       <c r="F25">
-        <v>1694.0245995259979</v>
+        <v>1637.0562282112289</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1012,10 +1014,10 @@
         <v>115</v>
       </c>
       <c r="E27">
-        <v>165.651861381456</v>
+        <v>150.11718855931059</v>
       </c>
       <c r="F27">
-        <v>165.651861381456</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1097,10 +1099,10 @@
         <v>1555.6194988963459</v>
       </c>
       <c r="E32">
-        <v>1862.7611552320679</v>
+        <v>1863.513053442053</v>
       </c>
       <c r="F32">
-        <v>1862.7611552320679</v>
+        <v>2648.014399060969</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1219,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>18.986545592635299</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1301,10 +1303,10 @@
         <v>498.80363902524101</v>
       </c>
       <c r="E44">
-        <v>687.60330578563321</v>
+        <v>687.60330578557148</v>
       </c>
       <c r="F44">
-        <v>687.60330578563321</v>
+        <v>687.60330578859794</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1352,10 +1354,10 @@
         <v>7.4769191855941131</v>
       </c>
       <c r="E47">
-        <v>10.538527034080969</v>
+        <v>10.548117079341321</v>
       </c>
       <c r="F47">
-        <v>10.538527034080969</v>
+        <v>9.1657141164856739</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1389,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>17.35579934541509</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">

--- a/Plotting/result_data_long.xlsx
+++ b/Plotting/result_data_long.xlsx
@@ -606,32 +606,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\Chemelot\20250225154543_2030_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\Chemelot\20250226103801_2040_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\Chemelot\20250305203701_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250225154630_2030_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250305203803_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Greenfield\Chemelot\20250225154527_2030_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Greenfield\Chemelot\20250305203722_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Brownfield\Chemelot\20250225154700_2030_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Brownfield\Chemelot\20250305203755_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -644,24 +640,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4408245775.271356</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4814129898.661708</v>
-      </c>
+        <v>4397151546.391542</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>4311608189.197308</v>
+        <v>4312781887.574133</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>4222102059.37342</v>
+        <v>4219271897.513778</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>4064825005.623677</v>
+        <v>4048559057.292062</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -711,24 +705,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1350841.140003969</v>
-      </c>
-      <c r="C9" t="n">
-        <v>373856.8054439161</v>
-      </c>
+        <v>1308550.7646122</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1363080.461820703</v>
+        <v>1377991.510291268</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>1395339.646961421</v>
+        <v>1395845.511193173</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>2118908.212563522</v>
+        <v>2123583.497517113</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -740,19 +732,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>272.643864204174</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1000.740040905153</v>
-      </c>
+        <v>278.0740216106955</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>212.8814609618565</v>
+        <v>237.9987408772523</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>334.9688279883055</v>
+        <v>339.2899079631322</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -769,19 +759,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.45957063329616</v>
-      </c>
-      <c r="C11" t="n">
-        <v>23.65360981475533</v>
-      </c>
+        <v>29.48155279922519</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>27.97375</v>
+        <v>28.25175</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>29.66857439389416</v>
+        <v>29.70589997024757</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -798,14 +786,12 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74.90129871885206</v>
-      </c>
-      <c r="C12" t="n">
-        <v>78.00873331095107</v>
-      </c>
+        <v>66.12141576320448</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>65.19511153444108</v>
+        <v>64.67389827589642</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -815,7 +801,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>41.68689299590493</v>
+        <v>41.59369857766703</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -827,24 +813,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.2619711378576</v>
-      </c>
-      <c r="C13" t="n">
-        <v>110.7675235658201</v>
-      </c>
+        <v>134.0716600165967</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>81.20157188411494</v>
+        <v>127.1410813270237</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>12.54280169320399</v>
+        <v>12.50287254991061</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>44.85872181080358</v>
+        <v>44.56319454868847</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -858,9 +842,7 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>19.42773514395306</v>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
         <v>0</v>
@@ -887,9 +869,7 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
         <v>0</v>
@@ -902,7 +882,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>4.904073587384709</v>
+        <v>4.614980289089999</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -916,15 +896,13 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>496.8094804011001</v>
+        <v>496.8094804010858</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -941,9 +919,7 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
         <v>0</v>
@@ -970,9 +946,7 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
         <v>0</v>
@@ -985,7 +959,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>1.341216216221171</v>
+        <v>0</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -997,19 +971,17 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.696737468833</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
+        <v>671.699900481285</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>785.2305972898682</v>
+        <v>758.2188974853605</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>692.4913284123331</v>
+        <v>690.7211715606553</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1026,19 +998,17 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>847.7574282954582</v>
-      </c>
-      <c r="C20" t="n">
-        <v>680.6794191296499</v>
-      </c>
+        <v>848.3900086107967</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>853.7719250041484</v>
+        <v>854.8460423091988</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1055,11 +1025,9 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>847.7574282954582</v>
-      </c>
-      <c r="C21" t="n">
-        <v>913.31334760185</v>
-      </c>
+        <v>848.3900086107967</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
         <v>0</v>
@@ -1067,7 +1035,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>853.7719250041484</v>
+        <v>854.8460423091988</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1086,9 +1054,7 @@
       <c r="B22" t="n">
         <v>338</v>
       </c>
-      <c r="C22" t="n">
-        <v>421</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
         <v>338</v>
@@ -1113,14 +1079,12 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>496.8600000000106</v>
-      </c>
-      <c r="C23" t="n">
-        <v>618.87</v>
-      </c>
+        <v>496.86</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>496.8599999999869</v>
+        <v>496.86</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1144,9 +1108,7 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
         <v>0</v>
@@ -1173,15 +1135,13 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>496.8094804010847</v>
+        <v>496.8094804010968</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1196,14 +1156,12 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>64.06277066355992</v>
-      </c>
-      <c r="C26" t="n">
-        <v>43.42241284685056</v>
-      </c>
+        <v>64.06277066356115</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>64.06277066356539</v>
+        <v>64.06277066356225</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1227,9 +1185,7 @@
       <c r="B27" t="n">
         <v>218</v>
       </c>
-      <c r="C27" t="n">
-        <v>240</v>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
         <v>218</v>
@@ -1256,9 +1212,7 @@
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
         <v>0</v>
@@ -1285,9 +1239,7 @@
       <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="n">
-        <v>322.1846624204487</v>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -1308,24 +1260,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8563.458839345891</v>
-      </c>
-      <c r="C30" t="n">
-        <v>10640.38597297947</v>
-      </c>
+        <v>8686.055940814089</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>1064.4</v>
+        <v>5054.448620826543</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>9721.419157543867</v>
+        <v>9731.235225472154</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>4.320000000000164</v>
+        <v>0</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -1337,24 +1287,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1192.836320687809</v>
-      </c>
-      <c r="C31" t="n">
-        <v>6414</v>
-      </c>
+        <v>1192.49908799887</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>1742.570654219948</v>
+        <v>1684.859087837084</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>1230.259602694902</v>
+        <v>1230.072950471754</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>882.8666603582051</v>
+        <v>881.8099081044782</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -1368,17 +1316,15 @@
       <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>12.38411517274213</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>2916.295246203483</v>
+        <v>2420.264552638973</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1397,9 +1343,7 @@
       <c r="B33" t="n">
         <v>0</v>
       </c>
-      <c r="C33" t="n">
-        <v>201.622520212165</v>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
         <v>0</v>
@@ -1412,7 +1356,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2.883599999939463</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -1424,19 +1368,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.73195627148707</v>
-      </c>
-      <c r="C34" t="n">
-        <v>452.5142948203295</v>
-      </c>
+        <v>40.13579781629868</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>931.1931833990961</v>
+        <v>208.4077919801477</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>35.65468283024716</v>
+        <v>35.6654322176591</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1455,9 +1397,7 @@
       <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="n">
-        <v>98.87005345423017</v>
-      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
         <v>0</v>
@@ -1470,7 +1410,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>7.689600000016526</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -1482,19 +1422,17 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>126.1682899066718</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
+        <v>125.6078813900003</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>146.8381216932054</v>
+        <v>141.7869338297624</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>129.4958784131063</v>
+        <v>129.1648590818425</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1511,24 +1449,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>697.1244661571451</v>
-      </c>
-      <c r="C37" t="n">
-        <v>439.9521859862688</v>
-      </c>
+        <v>770.0983313309674</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>867.5383803541082</v>
+        <v>843.494196374666</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>699.491328412333</v>
+        <v>697.7211715606552</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>1109.677381469949</v>
+        <v>1107.504624997325</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -1542,9 +1478,7 @@
       <c r="B38" t="n">
         <v>0</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
         <v>0</v>
@@ -1571,9 +1505,7 @@
       <c r="B39" t="n">
         <v>0</v>
       </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
         <v>0</v>
@@ -1600,9 +1532,7 @@
       <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
         <v>0</v>
@@ -1627,14 +1557,12 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91.88324823186622</v>
-      </c>
-      <c r="C41" t="n">
-        <v>22.04417315670215</v>
-      </c>
+        <v>91.27968825712335</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>114</v>
+        <v>108.7045277346541</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -1658,9 +1586,7 @@
       <c r="B42" t="n">
         <v>0</v>
       </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
         <v>0</v>
@@ -1687,9 +1613,7 @@
       <c r="B43" t="n">
         <v>0</v>
       </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
         <v>0</v>
@@ -1716,9 +1640,7 @@
       <c r="B44" t="n">
         <v>0</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
         <v>0</v>
@@ -1745,9 +1667,7 @@
       <c r="B45" t="n">
         <v>0</v>
       </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
         <v>0</v>
@@ -1774,9 +1694,7 @@
       <c r="B46" t="n">
         <v>0</v>
       </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
         <v>0</v>
@@ -1803,9 +1721,7 @@
       <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
         <v>0</v>
@@ -1832,9 +1748,7 @@
       <c r="B48" t="n">
         <v>338</v>
       </c>
-      <c r="C48" t="n">
-        <v>421</v>
-      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
         <v>338</v>
@@ -1861,9 +1775,7 @@
       <c r="B49" t="n">
         <v>0</v>
       </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
         <v>0</v>
@@ -1890,9 +1802,7 @@
       <c r="B50" t="n">
         <v>0</v>
       </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
         <v>0</v>
@@ -1919,9 +1829,7 @@
       <c r="B51" t="n">
         <v>0</v>
       </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
         <v>0</v>
@@ -1948,9 +1856,7 @@
       <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
         <v>0</v>
@@ -1977,9 +1883,7 @@
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
         <v>0</v>
@@ -2006,9 +1910,7 @@
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
         <v>0</v>
@@ -2035,9 +1937,7 @@
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
         <v>0</v>
@@ -2045,7 +1945,7 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>92.14979522835591</v>
+        <v>92.29075446561427</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2064,9 +1964,7 @@
       <c r="B56" t="n">
         <v>750</v>
       </c>
-      <c r="C56" t="n">
-        <v>1952.220538577961</v>
-      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
         <v>750</v>
@@ -2093,9 +1991,7 @@
       <c r="B57" t="n">
         <v>0</v>
       </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
         <v>0</v>
@@ -2122,9 +2018,7 @@
       <c r="B58" t="n">
         <v>0</v>
       </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
         <v>0</v>
@@ -2137,7 +2031,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>1.341216216899887</v>
+        <v>0</v>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -2151,9 +2045,7 @@
       <c r="B59" t="n">
         <v>0</v>
       </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
         <v>0</v>
@@ -2180,9 +2072,7 @@
       <c r="B60" t="n">
         <v>0</v>
       </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
         <v>0</v>
@@ -2209,9 +2099,7 @@
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
         <v>0</v>
@@ -2238,9 +2126,7 @@
       <c r="B62" t="n">
         <v>0</v>
       </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
         <v>0</v>
@@ -2267,9 +2153,7 @@
       <c r="B63" t="n">
         <v>0</v>
       </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
         <v>0</v>
@@ -2296,9 +2180,7 @@
       <c r="B64" t="n">
         <v>0</v>
       </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
         <v>0</v>
@@ -2323,19 +2205,17 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>44.44094986528036</v>
-      </c>
-      <c r="C65" t="n">
-        <v>163.1206266675399</v>
-      </c>
+        <v>45.32606552254336</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>34.69967813678261</v>
+        <v>38.79379476299249</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>54.59991896225288</v>
+        <v>55.30425499800154</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2354,9 +2234,7 @@
       <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
         <v>0</v>
@@ -2383,9 +2261,7 @@
       <c r="B67" t="n">
         <v>0</v>
       </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
         <v>0</v>
@@ -2410,24 +2286,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>697.1244661571451</v>
-      </c>
-      <c r="C68" t="n">
-        <v>439.9521859862688</v>
-      </c>
+        <v>770.0983313309674</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>867.5383803541082</v>
+        <v>843.494196374666</v>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>311.483124219661</v>
+        <v>309.712967368408</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>723.0823814699489</v>
+        <v>735.243012613854</v>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -2441,9 +2315,7 @@
       <c r="B69" t="n">
         <v>0</v>
       </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
         <v>0</v>
@@ -2470,9 +2342,7 @@
       <c r="B70" t="n">
         <v>0</v>
       </c>
-      <c r="C70" t="n">
-        <v>379.808115252304</v>
-      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
         <v>0</v>
@@ -2499,9 +2369,7 @@
       <c r="B71" t="n">
         <v>0</v>
       </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
         <v>0</v>
@@ -2528,9 +2396,7 @@
       <c r="B72" t="n">
         <v>0</v>
       </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
         <v>0</v>
@@ -2557,9 +2423,7 @@
       <c r="B73" t="n">
         <v>0</v>
       </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
         <v>0</v>
@@ -2586,9 +2450,7 @@
       <c r="B74" t="n">
         <v>0</v>
       </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
         <v>0</v>
@@ -2596,12 +2458,12 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>496.8094804013822</v>
+        <v>496.8094804020601</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -2615,9 +2477,7 @@
       <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
         <v>0</v>
@@ -2644,9 +2504,7 @@
       <c r="B76" t="n">
         <v>0</v>
       </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
         <v>0</v>
@@ -2673,9 +2531,7 @@
       <c r="B77" t="n">
         <v>0</v>
       </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
         <v>0</v>
@@ -2702,9 +2558,7 @@
       <c r="B78" t="n">
         <v>0</v>
       </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
         <v>0</v>
@@ -2731,9 +2585,7 @@
       <c r="B79" t="n">
         <v>0</v>
       </c>
-      <c r="C79" t="n">
-        <v>24.3795365888819</v>
-      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
         <v>0</v>
@@ -2760,9 +2612,7 @@
       <c r="B80" t="n">
         <v>0</v>
       </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
         <v>0</v>
@@ -2789,9 +2639,7 @@
       <c r="B81" t="n">
         <v>0</v>
       </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
         <v>0</v>
@@ -2818,9 +2666,7 @@
       <c r="B82" t="n">
         <v>0</v>
       </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
         <v>0</v>
@@ -2845,19 +2691,17 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>76.77082893393629</v>
-      </c>
-      <c r="C83" t="n">
-        <v>178.1332453375726</v>
-      </c>
+        <v>77.60689450468087</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
-        <v>66.04312893331668</v>
+        <v>70.12670964071071</v>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>86.31369615171107</v>
+        <v>87.0033355500105</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -2874,14 +2718,12 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>64.06277066469362</v>
-      </c>
-      <c r="C84" t="n">
-        <v>43.42241284685057</v>
-      </c>
+        <v>64.06277066658389</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
-        <v>64.0627706641161</v>
+        <v>64.06277066357387</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -2905,9 +2747,7 @@
       <c r="B85" t="n">
         <v>0</v>
       </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
         <v>0</v>
@@ -2934,9 +2774,7 @@
       <c r="B86" t="n">
         <v>0</v>
       </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
         <v>0</v>
@@ -2963,9 +2801,7 @@
       <c r="B87" t="n">
         <v>0</v>
       </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
         <v>0</v>
@@ -2992,9 +2828,7 @@
       <c r="B88" t="n">
         <v>0</v>
       </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
         <v>0</v>
@@ -3021,9 +2855,7 @@
       <c r="B89" t="n">
         <v>0</v>
       </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
         <v>0</v>
@@ -3031,7 +2863,7 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>41.44083607638748</v>
+        <v>36.24071017126951</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3050,9 +2882,7 @@
       <c r="B90" t="n">
         <v>0</v>
       </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
         <v>0</v>
@@ -3079,9 +2909,7 @@
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
         <v>0</v>
@@ -3108,9 +2936,7 @@
       <c r="B92" t="n">
         <v>0</v>
       </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
         <v>0</v>
@@ -3137,9 +2963,7 @@
       <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
         <v>0</v>
@@ -3175,7 +2999,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
@@ -3190,7 +3014,7 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
@@ -3198,7 +3022,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
@@ -3221,7 +3045,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
@@ -3244,7 +3068,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>1060</v>
+        <v>1078</v>
       </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>

--- a/Plotting/result_data_long.xlsx
+++ b/Plotting/result_data_long.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,28 +606,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\Chemelot\20250305203701_2030_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250305203803_2030_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\Chemelot\20250314164445_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\Chemelot\20250314215920_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\Chemelot\20250317015545_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Greenfield\Chemelot\20250305203722_2030_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Greenfield\Chemelot\20250314130358_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Brownfield\Chemelot\20250305203755_2030_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Brownfield\Chemelot\20250317100816_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -640,22 +644,24 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4397151546.391542</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>4312781887.574133</v>
-      </c>
+        <v>4586815686.849113</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4638726527.622226</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4057533911.153514</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>4219271897.513778</v>
+        <v>4333926384.819841</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>4048559057.292062</v>
+        <v>4240040606.642636</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -705,22 +711,24 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1308550.7646122</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>1377991.510291268</v>
-      </c>
+        <v>1337760.515855992</v>
+      </c>
+      <c r="C9" t="n">
+        <v>378727.6839831287</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>1395845.511193173</v>
+        <v>1584239.984944841</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>2123583.497517113</v>
+        <v>1580891.938166805</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -732,22 +740,24 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>278.0740216106955</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>237.9987408772523</v>
-      </c>
+        <v>244.0937266196478</v>
+      </c>
+      <c r="C10" t="n">
+        <v>953.6870163766918</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1242.801716408092</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>339.2899079631322</v>
+        <v>290.6410368726285</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>202.5346508295757</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -759,22 +769,24 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.48155279922519</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>28.25175</v>
-      </c>
+        <v>29.27359533466455</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.1528001843225</v>
+      </c>
+      <c r="D11" t="n">
+        <v>27.92410714285579</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>29.70589997024757</v>
+        <v>29.56445540993793</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>28.25175000000005</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -786,13 +798,15 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>66.12141576320448</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>64.67389827589642</v>
-      </c>
+        <v>65.35961369899583</v>
+      </c>
+      <c r="C12" t="n">
+        <v>130.1295517463206</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
@@ -801,7 +815,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>41.59369857766703</v>
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -813,22 +827,24 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.0716600165967</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>127.1410813270237</v>
-      </c>
+        <v>133.763384344918</v>
+      </c>
+      <c r="C13" t="n">
+        <v>160.4916671958973</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>12.50287254991061</v>
+        <v>12.65418327754873</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>44.56319454868847</v>
+        <v>0</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -842,15 +858,17 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
+      <c r="C14" t="n">
+        <v>17.48514097040579</v>
+      </c>
+      <c r="D14" t="n">
+        <v>97.09040188298161</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>37.2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -869,11 +887,13 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
@@ -882,7 +902,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>4.614980289089999</v>
+        <v>0</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -896,13 +916,17 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>496.8094804010858</v>
+        <v>496.8094804011084</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -919,11 +943,13 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
@@ -946,11 +972,13 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
@@ -971,22 +999,24 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>671.699900481285</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>758.2188974853605</v>
-      </c>
+        <v>688.2716451148702</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>690.7211715606553</v>
+        <v>719.289546517245</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>784.5123362082234</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -998,22 +1028,24 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>848.3900086107967</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>813</v>
-      </c>
+        <v>842.4056211414618</v>
+      </c>
+      <c r="C20" t="n">
+        <v>666.2676312035252</v>
+      </c>
+      <c r="D20" t="n">
+        <v>803.5714285713897</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>854.8460423091988</v>
+        <v>850.7756952498361</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>813.0000000000014</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1025,17 +1057,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>848.3900086107967</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
+        <v>842.4056211414618</v>
+      </c>
+      <c r="C21" t="n">
+        <v>864.8675159569401</v>
+      </c>
+      <c r="D21" t="n">
+        <v>803.5714285714399</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>854.8460423091988</v>
+        <v>850.7756952498361</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1052,13 +1086,15 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>338.0000000000031</v>
+      </c>
+      <c r="C22" t="n">
         <v>338</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
+      <c r="D22" t="n">
         <v>338</v>
       </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
@@ -1079,13 +1115,15 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>496.8599999999954</v>
+      </c>
+      <c r="C23" t="n">
         <v>496.86</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
+      <c r="D23" t="n">
         <v>496.86</v>
       </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
@@ -1108,11 +1146,13 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
@@ -1135,13 +1175,17 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>496.8094804010968</v>
+        <v>496.8094804010881</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1156,13 +1200,15 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>64.06277066356115</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>64.06277066356225</v>
-      </c>
+        <v>64.06277066356172</v>
+      </c>
+      <c r="C26" t="n">
+        <v>64.47860193399841</v>
+      </c>
+      <c r="D26" t="n">
+        <v>26.85622592133685</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
@@ -1185,11 +1231,13 @@
       <c r="B27" t="n">
         <v>218</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
+      <c r="C27" t="n">
         <v>218</v>
       </c>
+      <c r="D27" t="n">
+        <v>218</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
@@ -1212,11 +1260,13 @@
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
@@ -1239,8 +1289,12 @@
       <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>289.9691703218206</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1260,22 +1314,24 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8686.055940814089</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>5054.448620826543</v>
-      </c>
+        <v>7552.349501602794</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10903.41480107527</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>9731.235225472154</v>
+        <v>9663.762747533312</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>4349.888429368343</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -1287,22 +1343,24 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1192.49908799887</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
-        <v>1684.859087837084</v>
-      </c>
+        <v>1196.404007113425</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6414</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>1230.072950471754</v>
+        <v>1238.520512953411</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>881.8099081044782</v>
+        <v>1699.669322500829</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -1316,15 +1374,17 @@
       <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>2420.264552638973</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1341,13 +1401,15 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
+        <v>-2.537350144757177e-11</v>
+      </c>
+      <c r="C33" t="n">
+        <v>90.48701923010805</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
@@ -1356,7 +1418,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>2.883599999939463</v>
+        <v>2.883599999917124</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -1368,22 +1430,24 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.13579781629868</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="n">
-        <v>208.4077919801477</v>
-      </c>
+        <v>54.8071917288793</v>
+      </c>
+      <c r="C34" t="n">
+        <v>352.2833670724705</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>35.6654322176591</v>
+        <v>47.80913859109741</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>248.2738815962284</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -1395,13 +1459,15 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
+        <v>-2.773960875765291e-11</v>
+      </c>
+      <c r="C35" t="n">
+        <v>307.1508826421785</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
@@ -1410,7 +1476,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>7.689600000016526</v>
+        <v>4.806000000010883</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -1422,22 +1488,24 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>125.6078813900003</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>141.7869338297624</v>
-      </c>
+        <v>128.7067976364807</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>129.1648590818425</v>
+        <v>134.5071451987248</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>146.7038068709378</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -1449,22 +1517,24 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>770.0983313309674</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="n">
-        <v>843.494196374666</v>
-      </c>
+        <v>786.6085192743484</v>
+      </c>
+      <c r="C37" t="n">
+        <v>457.4608375177179</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>697.7211715606552</v>
+        <v>726.2895465170475</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>1107.504624997325</v>
+        <v>791.5123362082234</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -1478,11 +1548,13 @@
       <c r="B38" t="n">
         <v>0</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
@@ -1505,11 +1577,13 @@
       <c r="B39" t="n">
         <v>0</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
@@ -1532,11 +1606,13 @@
       <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
@@ -1557,17 +1633,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91.27968825712335</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
-        <v>108.7045277346541</v>
-      </c>
+        <v>94.61722105528435</v>
+      </c>
+      <c r="C41" t="n">
+        <v>18.14039319996616</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.798117293423275e-11</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>114</v>
+        <v>100.8641953792816</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1586,11 +1664,13 @@
       <c r="B42" t="n">
         <v>0</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>97.09040188318701</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
@@ -1613,11 +1693,13 @@
       <c r="B43" t="n">
         <v>0</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
@@ -1640,11 +1722,13 @@
       <c r="B44" t="n">
         <v>0</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
@@ -1667,11 +1751,13 @@
       <c r="B45" t="n">
         <v>0</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
@@ -1694,11 +1780,13 @@
       <c r="B46" t="n">
         <v>0</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
@@ -1721,11 +1809,13 @@
       <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
@@ -1746,13 +1836,15 @@
         </is>
       </c>
       <c r="B48" t="n">
+        <v>338.0000000000031</v>
+      </c>
+      <c r="C48" t="n">
         <v>338</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="n">
+      <c r="D48" t="n">
         <v>338</v>
       </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
@@ -1775,11 +1867,13 @@
       <c r="B49" t="n">
         <v>0</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
@@ -1802,11 +1896,13 @@
       <c r="B50" t="n">
         <v>0</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
@@ -1829,11 +1925,13 @@
       <c r="B51" t="n">
         <v>0</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
@@ -1856,11 +1954,13 @@
       <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
@@ -1883,11 +1983,13 @@
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
@@ -1910,11 +2012,13 @@
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
@@ -1937,20 +2041,22 @@
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>92.29075446561427</v>
+        <v>88.04342214494079</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -1962,13 +2068,15 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>750</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>750</v>
-      </c>
+        <v>750.0000000003009</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1946.697003659738</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2035.664378190176</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
@@ -1991,11 +2099,13 @@
       <c r="B57" t="n">
         <v>0</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
@@ -2018,11 +2128,13 @@
       <c r="B58" t="n">
         <v>0</v>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
@@ -2045,11 +2157,13 @@
       <c r="B59" t="n">
         <v>0</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
@@ -2072,11 +2186,13 @@
       <c r="B60" t="n">
         <v>0</v>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
@@ -2099,11 +2215,13 @@
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
@@ -2126,11 +2244,13 @@
       <c r="B62" t="n">
         <v>0</v>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
@@ -2153,11 +2273,13 @@
       <c r="B63" t="n">
         <v>0</v>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
@@ -2180,11 +2302,13 @@
       <c r="B64" t="n">
         <v>0</v>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
@@ -2205,22 +2329,24 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>45.32606552254336</v>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="n">
-        <v>38.79379476299249</v>
-      </c>
+        <v>39.78727743900259</v>
+      </c>
+      <c r="C65" t="n">
+        <v>155.450983669401</v>
+      </c>
+      <c r="D65" t="n">
+        <v>202.5766797755945</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>55.30425499800154</v>
+        <v>47.37448901023847</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>33.01314808522121</v>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -2234,11 +2360,13 @@
       <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
@@ -2261,11 +2389,13 @@
       <c r="B67" t="n">
         <v>0</v>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
@@ -2286,22 +2416,24 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>770.0983313309674</v>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="n">
-        <v>843.494196374666</v>
-      </c>
+        <v>786.6085192747887</v>
+      </c>
+      <c r="C68" t="n">
+        <v>457.4608375177179</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>309.712967368408</v>
+        <v>338.2813423252452</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>735.243012613854</v>
+        <v>417.1904984687961</v>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -2315,11 +2447,13 @@
       <c r="B69" t="n">
         <v>0</v>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
@@ -2342,11 +2476,13 @@
       <c r="B70" t="n">
         <v>0</v>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
+      <c r="C70" t="n">
+        <v>457.4608375177179</v>
+      </c>
+      <c r="D70" t="n">
+        <v>7.000000000828324</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
@@ -2369,11 +2505,13 @@
       <c r="B71" t="n">
         <v>0</v>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
@@ -2396,11 +2534,13 @@
       <c r="B72" t="n">
         <v>0</v>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
@@ -2423,11 +2563,13 @@
       <c r="B73" t="n">
         <v>0</v>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
@@ -2450,20 +2592,22 @@
       <c r="B74" t="n">
         <v>0</v>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>496.8094804020601</v>
+        <v>496.8094804012347</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>499</v>
+        <v>499.0000000002234</v>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -2477,11 +2621,13 @@
       <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
@@ -2504,11 +2650,13 @@
       <c r="B76" t="n">
         <v>0</v>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
@@ -2531,11 +2679,13 @@
       <c r="B77" t="n">
         <v>0</v>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
@@ -2558,11 +2708,13 @@
       <c r="B78" t="n">
         <v>0</v>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
@@ -2583,13 +2735,15 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
+        <v>1.008970684779342e-12</v>
+      </c>
+      <c r="C79" t="n">
+        <v>22.39103367325663</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
@@ -2612,11 +2766,13 @@
       <c r="B80" t="n">
         <v>0</v>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
@@ -2639,11 +2795,13 @@
       <c r="B81" t="n">
         <v>0</v>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
@@ -2666,11 +2824,13 @@
       <c r="B82" t="n">
         <v>0</v>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
@@ -2691,22 +2851,24 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>77.60689450468087</v>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="n">
-        <v>70.12670964071071</v>
-      </c>
+        <v>72.28866674201421</v>
+      </c>
+      <c r="C83" t="n">
+        <v>170.5078512662908</v>
+      </c>
+      <c r="D83" t="n">
+        <v>219.4403352101115</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>87.0033355500105</v>
+        <v>79.58110128214898</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>64.84256022360685</v>
       </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -2718,13 +2880,15 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>64.06277066658389</v>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="n">
-        <v>64.06277066357387</v>
-      </c>
+        <v>64.0627706636336</v>
+      </c>
+      <c r="C84" t="n">
+        <v>64.47860193399841</v>
+      </c>
+      <c r="D84" t="n">
+        <v>26.85622592133685</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
@@ -2747,11 +2911,13 @@
       <c r="B85" t="n">
         <v>0</v>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
@@ -2774,11 +2940,13 @@
       <c r="B86" t="n">
         <v>0</v>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
@@ -2801,11 +2969,13 @@
       <c r="B87" t="n">
         <v>0</v>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
@@ -2828,11 +2998,13 @@
       <c r="B88" t="n">
         <v>0</v>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
@@ -2855,20 +3027,22 @@
       <c r="B89" t="n">
         <v>0</v>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>26.07795160939614</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>36.24071017126951</v>
+        <v>56.25005186599283</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>53.38060346401151</v>
       </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
@@ -2882,11 +3056,13 @@
       <c r="B90" t="n">
         <v>0</v>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
@@ -2909,11 +3085,13 @@
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
@@ -2936,11 +3114,13 @@
       <c r="B92" t="n">
         <v>0</v>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
@@ -2963,11 +3143,13 @@
       <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
@@ -2984,61 +3166,59 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace_existing</t>
+          <t>size_CO2electrolysis</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>53.09040188300933</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>499</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>size_HaberBosch_existing</t>
+          <t>size_DirectMeOHsynthesis</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="n">
-        <v>813</v>
-      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>813</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>size_OlefinSeparation_existing</t>
+          <t>size_CrackerFurnace_existing</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -3053,25 +3233,65 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>size_SteamReformer_existing</t>
+          <t>size_HaberBosch_existing</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>1078</v>
+        <v>813</v>
       </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>size_OlefinSeparation_existing</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>499</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>size_SteamReformer_existing</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Plotting/result_data_long.xlsx
+++ b/Plotting/result_data_long.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,9 +619,21 @@
           <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\Chemelot\20250317015545_2050_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250314164554_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250314211431_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250317085147_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Greenfield\Chemelot\20250314130358_2030_minC_DD10-1\optimization_results.h5</t>
@@ -652,9 +664,15 @@
       <c r="D6" t="n">
         <v>4057533911.153514</v>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4575981334.948889</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4478300542.589546</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3828547652.975349</v>
+      </c>
       <c r="H6" t="n">
         <v>4333926384.819841</v>
       </c>
@@ -676,8 +694,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>411729938.0809839</v>
+      </c>
+      <c r="G7" t="n">
+        <v>336341494.2486886</v>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -695,8 +717,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>4890030480.67053</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4164889147.224038</v>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -719,9 +745,15 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>1425735.550452898</v>
+      </c>
+      <c r="F9" t="n">
+        <v>431279.6667105766</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2693.706968664307</v>
+      </c>
       <c r="H9" t="n">
         <v>1584239.984944841</v>
       </c>
@@ -748,9 +780,15 @@
       <c r="D10" t="n">
         <v>1242.801716408092</v>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>137.5723965269584</v>
+      </c>
+      <c r="F10" t="n">
+        <v>624.9769810139412</v>
+      </c>
+      <c r="G10" t="n">
+        <v>666.7659965918923</v>
+      </c>
       <c r="H10" t="n">
         <v>290.6410368726285</v>
       </c>
@@ -777,9 +815,15 @@
       <c r="D11" t="n">
         <v>27.92410714285579</v>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>28.25175</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
       <c r="H11" t="n">
         <v>29.56445540993793</v>
       </c>
@@ -806,9 +850,15 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>64.27389941322308</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.252550907019539</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
@@ -835,9 +885,15 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>122.4405069399854</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
       <c r="H13" t="n">
         <v>12.65418327754873</v>
       </c>
@@ -864,9 +920,15 @@
       <c r="D14" t="n">
         <v>97.09040188298161</v>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>35.80559501221212</v>
+      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -893,9 +955,15 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
@@ -949,9 +1017,15 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
@@ -978,9 +1052,15 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8720475756570201</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -1007,9 +1087,15 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>761.2187988538528</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
       <c r="H19" t="n">
         <v>719.289546517245</v>
       </c>
@@ -1036,9 +1122,15 @@
       <c r="D20" t="n">
         <v>803.5714285713897</v>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>813</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
       <c r="H20" t="n">
         <v>850.7756952498361</v>
       </c>
@@ -1065,9 +1157,15 @@
       <c r="D21" t="n">
         <v>803.5714285714399</v>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
       <c r="H21" t="n">
         <v>850.7756952498361</v>
       </c>
@@ -1094,9 +1192,15 @@
       <c r="D22" t="n">
         <v>338</v>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>338</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
@@ -1123,9 +1227,15 @@
       <c r="D23" t="n">
         <v>496.86</v>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>496.86</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -1152,9 +1262,15 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
@@ -1208,9 +1324,15 @@
       <c r="D26" t="n">
         <v>26.85622592133685</v>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>64.06277066356182</v>
+      </c>
+      <c r="F26" t="n">
+        <v>37.91000621044196</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -1237,9 +1359,15 @@
       <c r="D27" t="n">
         <v>218</v>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>218</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
       <c r="H27" t="n">
         <v>218</v>
       </c>
@@ -1266,9 +1394,15 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
@@ -1322,9 +1456,15 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4425.097021946766</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4990.974562422334</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
       <c r="H30" t="n">
         <v>9663.762747533312</v>
       </c>
@@ -1351,9 +1491,15 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>1660.326973779414</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6414</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
       <c r="H31" t="n">
         <v>1238.520512953411</v>
       </c>
@@ -1380,9 +1526,15 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7.677002853796211</v>
+      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -1409,9 +1561,15 @@
       <c r="D33" t="n">
         <v>0</v>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>107.1937054617765</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
@@ -1438,9 +1596,15 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>180.8729715335719</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2243.190939328153</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
       <c r="H34" t="n">
         <v>47.80913859109741</v>
       </c>
@@ -1467,9 +1631,15 @@
       <c r="D35" t="n">
         <v>0</v>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>270.3816767623646</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -1496,9 +1666,15 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>142.3479153856705</v>
+      </c>
+      <c r="F36" t="n">
+        <v>18.23963887675982</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.2855160589690071</v>
+      </c>
       <c r="H36" t="n">
         <v>134.5071451987248</v>
       </c>
@@ -1525,9 +1701,15 @@
       <c r="D37" t="n">
         <v>7</v>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>862.7805995944515</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
       <c r="H37" t="n">
         <v>726.2895465170475</v>
       </c>
@@ -1554,9 +1736,15 @@
       <c r="D38" t="n">
         <v>0</v>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -1583,9 +1771,15 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
@@ -1612,9 +1806,15 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
@@ -1641,9 +1841,15 @@
       <c r="D41" t="n">
         <v>2.798117293423275e-11</v>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>109.3087048703998</v>
+      </c>
+      <c r="F41" t="n">
+        <v>109.3087048703671</v>
+      </c>
+      <c r="G41" t="n">
+        <v>56.2183029873578</v>
+      </c>
       <c r="H41" t="n">
         <v>100.8641953792816</v>
       </c>
@@ -1670,9 +1876,15 @@
       <c r="D42" t="n">
         <v>97.09040188318701</v>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>35.80559501221212</v>
+      </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
@@ -1699,9 +1911,15 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
@@ -1728,9 +1946,15 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -1757,9 +1981,15 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
@@ -1786,9 +2016,15 @@
       <c r="D46" t="n">
         <v>0</v>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
@@ -1815,9 +2051,15 @@
       <c r="D47" t="n">
         <v>0</v>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
@@ -1844,9 +2086,15 @@
       <c r="D48" t="n">
         <v>338</v>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>338</v>
+      </c>
+      <c r="F48" t="n">
+        <v>338</v>
+      </c>
+      <c r="G48" t="n">
+        <v>338</v>
+      </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
@@ -1873,9 +2121,15 @@
       <c r="D49" t="n">
         <v>0</v>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
@@ -1902,9 +2156,15 @@
       <c r="D50" t="n">
         <v>0</v>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
@@ -1931,9 +2191,15 @@
       <c r="D51" t="n">
         <v>0</v>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
@@ -1960,9 +2226,15 @@
       <c r="D52" t="n">
         <v>0</v>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
@@ -1989,9 +2261,15 @@
       <c r="D53" t="n">
         <v>0</v>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
@@ -2018,9 +2296,15 @@
       <c r="D54" t="n">
         <v>0</v>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
@@ -2047,9 +2331,15 @@
       <c r="D55" t="n">
         <v>0</v>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="H55" t="n">
         <v>88.04342214494079</v>
       </c>
@@ -2076,9 +2366,15 @@
       <c r="D56" t="n">
         <v>2035.664378190176</v>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>750.0000000001039</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2383.336445088576</v>
+      </c>
       <c r="H56" t="n">
         <v>750</v>
       </c>
@@ -2105,9 +2401,15 @@
       <c r="D57" t="n">
         <v>0</v>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
@@ -2134,9 +2436,15 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.8720475756570224</v>
+      </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
@@ -2163,9 +2471,15 @@
       <c r="D59" t="n">
         <v>0</v>
       </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
@@ -2192,9 +2506,15 @@
       <c r="D60" t="n">
         <v>0</v>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
@@ -2221,9 +2541,15 @@
       <c r="D61" t="n">
         <v>0</v>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
@@ -2250,9 +2576,15 @@
       <c r="D62" t="n">
         <v>0</v>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
@@ -2279,9 +2611,15 @@
       <c r="D63" t="n">
         <v>0</v>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
@@ -2308,9 +2646,15 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
@@ -2337,9 +2681,15 @@
       <c r="D65" t="n">
         <v>202.5766797755945</v>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>22.42430063389459</v>
+      </c>
+      <c r="F65" t="n">
+        <v>124.2955485391669</v>
+      </c>
+      <c r="G65" t="n">
+        <v>131.1071580783727</v>
+      </c>
       <c r="H65" t="n">
         <v>47.37448901023847</v>
       </c>
@@ -2366,9 +2716,15 @@
       <c r="D66" t="n">
         <v>0</v>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
@@ -2395,9 +2751,15 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
@@ -2424,9 +2786,15 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>862.7805995944515</v>
+      </c>
+      <c r="F68" t="n">
+        <v>768.2187988538528</v>
+      </c>
+      <c r="G68" t="n">
+        <v>311.4875195415411</v>
+      </c>
       <c r="H68" t="n">
         <v>338.2813423252452</v>
       </c>
@@ -2453,9 +2821,15 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
@@ -2482,9 +2856,15 @@
       <c r="D70" t="n">
         <v>7.000000000828324</v>
       </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>837.6548703941139</v>
+      </c>
+      <c r="G70" t="n">
+        <v>768.2187988538528</v>
+      </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
@@ -2511,9 +2891,15 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
@@ -2540,9 +2926,15 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
@@ -2569,9 +2961,15 @@
       <c r="D73" t="n">
         <v>0</v>
       </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
@@ -2598,9 +2996,15 @@
       <c r="D74" t="n">
         <v>0</v>
       </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>2.158184499136421e-10</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
       <c r="H74" t="n">
         <v>496.8094804012347</v>
       </c>
@@ -2627,9 +3031,15 @@
       <c r="D75" t="n">
         <v>0</v>
       </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
@@ -2656,9 +3066,15 @@
       <c r="D76" t="n">
         <v>0</v>
       </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
@@ -2685,9 +3101,15 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
@@ -2714,9 +3136,15 @@
       <c r="D78" t="n">
         <v>0</v>
       </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
@@ -2743,9 +3171,15 @@
       <c r="D79" t="n">
         <v>0</v>
       </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
@@ -2772,9 +3206,15 @@
       <c r="D80" t="n">
         <v>0</v>
       </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
@@ -2801,9 +3241,15 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
@@ -2830,9 +3276,15 @@
       <c r="D82" t="n">
         <v>0</v>
       </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
@@ -2859,9 +3311,15 @@
       <c r="D83" t="n">
         <v>219.4403352101115</v>
       </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>55.16318433251681</v>
+      </c>
+      <c r="F83" t="n">
+        <v>148.2847545035941</v>
+      </c>
+      <c r="G83" t="n">
+        <v>154.5113178247087</v>
+      </c>
       <c r="H83" t="n">
         <v>79.58110128214898</v>
       </c>
@@ -2888,9 +3346,15 @@
       <c r="D84" t="n">
         <v>26.85622592133685</v>
       </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>64.06277066371705</v>
+      </c>
+      <c r="F84" t="n">
+        <v>64.16524008895091</v>
+      </c>
+      <c r="G84" t="n">
+        <v>26.25523387850894</v>
+      </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
@@ -2917,9 +3381,15 @@
       <c r="D85" t="n">
         <v>0</v>
       </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
@@ -2946,9 +3416,15 @@
       <c r="D86" t="n">
         <v>0</v>
       </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
@@ -2975,9 +3451,15 @@
       <c r="D87" t="n">
         <v>0</v>
       </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
@@ -3004,9 +3486,15 @@
       <c r="D88" t="n">
         <v>0</v>
       </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
@@ -3033,9 +3521,15 @@
       <c r="D89" t="n">
         <v>26.07795160939614</v>
       </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>28.34627844525752</v>
+      </c>
       <c r="H89" t="n">
         <v>56.25005186599283</v>
       </c>
@@ -3062,9 +3556,15 @@
       <c r="D90" t="n">
         <v>0</v>
       </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
@@ -3091,9 +3591,15 @@
       <c r="D91" t="n">
         <v>0</v>
       </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
@@ -3120,9 +3626,15 @@
       <c r="D92" t="n">
         <v>0</v>
       </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
@@ -3149,9 +3661,15 @@
       <c r="D93" t="n">
         <v>0</v>
       </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
@@ -3177,8 +3695,12 @@
         <v>53.09040188300933</v>
       </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>2.548878172821863e-05</v>
+      </c>
+      <c r="G94" t="n">
+        <v>53.09040188300933</v>
+      </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3200,8 +3722,12 @@
         <v>0</v>
       </c>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3218,7 +3744,9 @@
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -3239,9 +3767,15 @@
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>813</v>
+      </c>
+      <c r="F97" t="n">
+        <v>813</v>
+      </c>
+      <c r="G97" t="n">
+        <v>813</v>
+      </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3260,7 +3794,9 @@
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
@@ -3281,7 +3817,9 @@
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
@@ -3292,6 +3830,414 @@
       </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>size_AEC_existing</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>137.5723965269584</v>
+      </c>
+      <c r="G100" t="n">
+        <v>137.5723965269584</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>size_ASU_existing</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>28.25175</v>
+      </c>
+      <c r="G101" t="n">
+        <v>28.25175</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>size_Boiler_El_existing</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>64.27389941322308</v>
+      </c>
+      <c r="G102" t="n">
+        <v>64.27389941322308</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>size_Boiler_Industrial_NG_existing</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>122.4405069399854</v>
+      </c>
+      <c r="G103" t="n">
+        <v>122.4405069399854</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>size_ElectricSMR_m_existing</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>761.2187988538528</v>
+      </c>
+      <c r="G104" t="n">
+        <v>761.2187988538528</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>size_HBfeed_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>813</v>
+      </c>
+      <c r="G105" t="n">
+        <v>813</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>size_MPW2methanol_existing</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>338</v>
+      </c>
+      <c r="G106" t="n">
+        <v>338</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>size_MTO_existing</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>496.86</v>
+      </c>
+      <c r="G107" t="n">
+        <v>496.86</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>size_PDH_existing</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>64.06277066356182</v>
+      </c>
+      <c r="G108" t="n">
+        <v>64.06277066356182</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>size_PE_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>218</v>
+      </c>
+      <c r="G109" t="n">
+        <v>218</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_Ammonia_existing</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>4425.097021946766</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4425.097021946766</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_Battery_existing</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="n">
+        <v>1660.326973779414</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1660.326973779414</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_H2_existing</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="n">
+        <v>180.8729715335719</v>
+      </c>
+      <c r="G112" t="n">
+        <v>180.8729715335719</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>size_WGS_m_existing</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>142.3479153856705</v>
+      </c>
+      <c r="G113" t="n">
+        <v>142.3479153856705</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>size_feedgas_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="n">
+        <v>862.7805995944515</v>
+      </c>
+      <c r="G114" t="n">
+        <v>862.7805995944515</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>size_CO2electrolysis_existing</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>2.548878172821863e-05</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_Ethylene_existing</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>107.1937054617765</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_Propylene_existing</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>270.3816767623646</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Plotting/result_data_long.xlsx
+++ b/Plotting/result_data_long.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,28 +606,44 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\Chemelot\20250408154636_2030_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\Chemelot\20250414172927_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250408154656_2030_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250414173015_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250414212316_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250415121806_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Greenfield\Chemelot\20250408154818_2030_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Greenfield\Chemelot\20250414173206_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Greenfield\Chemelot\20250415015547_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Greenfield\Chemelot\20250415182651_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Brownfield\Chemelot\20250408154915_2030_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Brownfield\Chemelot\20250414173301_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -640,22 +656,30 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4586839966.612108</v>
+        <v>4588155971.300325</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>4559059962.230922</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+        <v>4614915515.777688</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3852244493.288744</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3102207540.600353</v>
+      </c>
       <c r="H6" t="n">
-        <v>4334668948.21116</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>4335623617.181549</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3740341151.089449</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4183573486.910211</v>
+      </c>
       <c r="K6" t="n">
-        <v>4252043481.006291</v>
+        <v>4207207728.697828</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -670,8 +694,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>357476588.5924067</v>
+      </c>
+      <c r="G7" t="n">
+        <v>638097861.9843307</v>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -705,22 +733,30 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1339022.248793405</v>
+        <v>1339137.346112024</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1426068.482975466</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+        <v>1945073.845687752</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1495009.177507547</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1296480</v>
+      </c>
       <c r="H9" t="n">
-        <v>1587293.556791044</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1585314.601209711</v>
+      </c>
+      <c r="I9" t="n">
+        <v>792657.3006048435</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="n">
-        <v>2125646.442896504</v>
+        <v>1580778.784358503</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -732,18 +768,24 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>137605198998.3633</v>
+        <v>137644679139.0098</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>115693675496.6678</v>
+      </c>
       <c r="H10" t="n">
-        <v>130040068446.3348</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>130068708515.4465</v>
+      </c>
+      <c r="I10" t="n">
+        <v>112210234532.6835</v>
+      </c>
+      <c r="J10" t="n">
+        <v>125507204607.3063</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -755,22 +797,30 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.0660730490375</v>
+        <v>241.4597522945946</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>137.0277930183612</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>102.0333746000568</v>
+      </c>
+      <c r="G11" t="n">
+        <v>90.30964689074676</v>
+      </c>
       <c r="H11" t="n">
-        <v>289.8444560694368</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>282.6796352668781</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1081.8604389311</v>
+      </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>188.6858778285619</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -782,22 +832,30 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29.33645128382691</v>
+        <v>29.17470836460497</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>28.25175000000016</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.321643220495105</v>
+      </c>
+      <c r="G12" t="n">
+        <v>25.64063637014723</v>
+      </c>
       <c r="H12" t="n">
-        <v>29.56495574510043</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>29.36413807663639</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1001290303683973</v>
+      </c>
+      <c r="J12" t="n">
+        <v>27.92410714286028</v>
+      </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>28.25175</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -809,22 +867,30 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63.77681354194598</v>
+        <v>65.3596136989397</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>65.28289976655448</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+        <v>156.5006434762796</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>126.1411349876457</v>
+      </c>
+      <c r="J13" t="n">
+        <v>289.4037348892484</v>
+      </c>
       <c r="K13" t="n">
-        <v>41.59677723357092</v>
+        <v>0</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -836,22 +902,30 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>133.3387547156183</v>
+        <v>128.2926375707695</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>101.9994192439124</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+        <v>168.408301132104</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
       <c r="H14" t="n">
-        <v>12.6536480425721</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>2.397682768479084</v>
+      </c>
+      <c r="I14" t="n">
+        <v>27.51773143172308</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="n">
-        <v>44.28554902682323</v>
+        <v>0</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -870,13 +944,21 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>147.2480399634183</v>
+      </c>
+      <c r="G15" t="n">
+        <v>53.42147062346896</v>
+      </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>92.16160502100482</v>
+      </c>
+      <c r="J15" t="n">
+        <v>109.7480254745925</v>
+      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -897,15 +979,23 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="n">
-        <v>6.522996057818659</v>
+        <v>0</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -925,10 +1015,14 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>496.809480401093</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+        <v>496.8094804010865</v>
+      </c>
+      <c r="I17" t="n">
+        <v>305.5972325343301</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -947,13 +1041,21 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>99.26319205077147</v>
+      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -974,13 +1076,21 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -994,22 +1104,30 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>690.9155039844088</v>
+        <v>691.5746768003698</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>747.7579468087609</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>733.0225688662956</v>
+      </c>
       <c r="H20" t="n">
-        <v>719.844601597303</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+        <v>718.4745866438434</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>779.2922411436635</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1021,22 +1139,30 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>844.2144254338428</v>
+        <v>839.5599529382724</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>66.80989031224067</v>
+      </c>
+      <c r="G21" t="n">
+        <v>737.8600266036352</v>
+      </c>
+      <c r="H21" t="n">
+        <v>845.0111676729897</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.88141094585068</v>
+      </c>
+      <c r="J21" t="n">
+        <v>803.5714285714286</v>
+      </c>
+      <c r="K21" t="n">
         <v>813</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>850.7900933841697</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>0</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -1048,20 +1174,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>844.2144254338428</v>
+        <v>839.5599529382724</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
       <c r="H22" t="n">
-        <v>850.7900933841697</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+        <v>845.0111676729897</v>
+      </c>
+      <c r="I22" t="n">
+        <v>806.2873059944878</v>
+      </c>
+      <c r="J22" t="n">
+        <v>803.5714285714286</v>
+      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -1082,13 +1216,21 @@
       <c r="E23" t="n">
         <v>338</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -1107,15 +1249,23 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>496.8599999999695</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+        <v>503.7780144019245</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
       <c r="H24" t="n">
-        <v>1.59059254656313e-12</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
@@ -1134,15 +1284,23 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>8.405849820093838</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -1164,10 +1322,14 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>496.8094804010805</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>496.8094804011101</v>
+      </c>
+      <c r="I26" t="n">
+        <v>305.5972325343301</v>
+      </c>
+      <c r="J26" t="n">
+        <v>99.26319205077147</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -1179,20 +1341,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>64.06277066356191</v>
+        <v>64.06277066356277</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>64.06277066356603</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>61.42120055431899</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>157</v>
+      </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
@@ -1213,13 +1383,21 @@
       <c r="E28" t="n">
         <v>218</v>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
       <c r="H28" t="n">
         <v>218</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>218</v>
+      </c>
+      <c r="J28" t="n">
+        <v>218</v>
+      </c>
       <c r="K28" t="n">
         <v>218</v>
       </c>
@@ -1238,15 +1416,23 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+        <v>9.900883180350109</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -1270,8 +1456,12 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>1055.738121448818</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -1283,22 +1473,30 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7876.807878322137</v>
+        <v>7224.929599974984</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>1949.914256827816</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1157.910541400721</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
       <c r="H31" t="n">
-        <v>9151.203890300996</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>8031.220348630261</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1362.899133837197</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4.551536470414898e-09</v>
+      </c>
       <c r="K31" t="n">
-        <v>28.51200000000071</v>
+        <v>5247.172173913217</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -1310,22 +1508,30 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1198.081289937989</v>
+        <v>1211.820683122364</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>1684.491321074963</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+        <v>852.5507511257869</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4324.354024675898</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
       <c r="H32" t="n">
-        <v>1238.722944372642</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1338.884284164562</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5031.024605684076</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.138687366619706e-09</v>
+      </c>
       <c r="K32" t="n">
-        <v>752.3546337545221</v>
+        <v>1697.483433706402</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -1344,15 +1550,23 @@
       <c r="E33" t="n">
         <v>0</v>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>905.8647720865329</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>164.1639291732885</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.277172505624164e-08</v>
+      </c>
       <c r="K33" t="n">
-        <v>6.65440210249777</v>
+        <v>0</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -1364,22 +1578,30 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-2.310463324980718e-10</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
         <v>0</v>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>5397.22602418008</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
       <c r="H34" t="n">
-        <v>1.305264464883462e-10</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>836.3574248818412</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.154346135553572e-10</v>
+      </c>
       <c r="K34" t="n">
-        <v>5.767200000011564</v>
+        <v>3.844799999993449</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -1391,22 +1613,30 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>45.02816673028642</v>
+        <v>161.736827521127</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>113.3738710833625</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+        <v>4.387827281361243e-10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.655530641566429e-05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
       <c r="H35" t="n">
-        <v>48.61657676494878</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>124.6378783694997</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.3954267082367138</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>211.700613945202</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -1418,22 +1648,30 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.600710675120354e-10</v>
+        <v>0</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
         <v>0</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>1129.899138202043</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
       <c r="H36" t="n">
-        <v>-1.227652519925816e-10</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9086.52802892159</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5.187387940985796e-10</v>
+      </c>
       <c r="K36" t="n">
-        <v>5.767199999994396</v>
+        <v>3.844799999994738</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -1445,22 +1683,30 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>129.2011992450844</v>
+        <v>129.3244645616691</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>139.8307360532383</v>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>137.0752203779973</v>
+      </c>
       <c r="H37" t="n">
-        <v>134.6109404986957</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>134.3547477023987</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>145.7276490938651</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -1472,22 +1718,30 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>787.7363982897838</v>
+        <v>802.7814448842365</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>844.3708317826923</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+        <v>1231.349731580762</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
       <c r="H38" t="n">
-        <v>726.844601597303</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>725.4745866438434</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1090.255852880541</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7</v>
+      </c>
       <c r="K38" t="n">
-        <v>1119.616692259412</v>
+        <v>786.2922411436634</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -1506,13 +1760,21 @@
       <c r="E39" t="n">
         <v>0</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
@@ -1533,13 +1795,21 @@
       <c r="E40" t="n">
         <v>0</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
@@ -1560,13 +1830,21 @@
       <c r="E41" t="n">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
@@ -1580,22 +1858,30 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>95.14969158702212</v>
+        <v>95.28244833291771</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>106.5977027293919</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+        <v>108.7140971139432</v>
+      </c>
+      <c r="F42" t="n">
+        <v>114</v>
+      </c>
+      <c r="G42" t="n">
+        <v>148</v>
+      </c>
       <c r="H42" t="n">
-        <v>100.9759829174474</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>100.700063275586</v>
+      </c>
+      <c r="I42" t="n">
+        <v>114</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="n">
-        <v>114</v>
+        <v>112.9486780742124</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -1614,13 +1900,21 @@
       <c r="E43" t="n">
         <v>0</v>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>109.748025587573</v>
+      </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
@@ -1641,13 +1935,21 @@
       <c r="E44" t="n">
         <v>0</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
@@ -1668,13 +1970,21 @@
       <c r="E45" t="n">
         <v>0</v>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
@@ -1695,13 +2005,21 @@
       <c r="E46" t="n">
         <v>0</v>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
@@ -1722,13 +2040,21 @@
       <c r="E47" t="n">
         <v>0</v>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
@@ -1749,13 +2075,21 @@
       <c r="E48" t="n">
         <v>0</v>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
@@ -1776,13 +2110,21 @@
       <c r="E49" t="n">
         <v>338</v>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>338.0000000000001</v>
+      </c>
+      <c r="G49" t="n">
+        <v>338</v>
+      </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
@@ -1803,13 +2145,21 @@
       <c r="E50" t="n">
         <v>0</v>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
@@ -1830,13 +2180,21 @@
       <c r="E51" t="n">
         <v>0</v>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
@@ -1857,13 +2215,21 @@
       <c r="E52" t="n">
         <v>0</v>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
@@ -1884,13 +2250,21 @@
       <c r="E53" t="n">
         <v>0</v>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
@@ -1911,13 +2285,21 @@
       <c r="E54" t="n">
         <v>0</v>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
@@ -1938,13 +2320,21 @@
       <c r="E55" t="n">
         <v>0</v>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
@@ -1965,13 +2355,21 @@
       <c r="E56" t="n">
         <v>0</v>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="H56" t="n">
-        <v>87.94700049984783</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>91.22068676723228</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>70.52455300092495</v>
+      </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
@@ -1985,20 +2383,28 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>750.0000000001066</v>
+        <v>750</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
         <v>750</v>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2500</v>
+      </c>
       <c r="H57" t="n">
         <v>750</v>
       </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2500.000000144458</v>
+      </c>
       <c r="K57" t="n">
         <v>750</v>
       </c>
@@ -2019,13 +2425,21 @@
       <c r="E58" t="n">
         <v>0</v>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
@@ -2046,13 +2460,21 @@
       <c r="E59" t="n">
         <v>0</v>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
@@ -2073,13 +2495,21 @@
       <c r="E60" t="n">
         <v>0</v>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
@@ -2100,13 +2530,21 @@
       <c r="E61" t="n">
         <v>0</v>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
@@ -2127,13 +2565,21 @@
       <c r="E62" t="n">
         <v>0</v>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
@@ -2154,13 +2600,21 @@
       <c r="E63" t="n">
         <v>0</v>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
@@ -2181,13 +2635,21 @@
       <c r="E64" t="n">
         <v>0</v>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
@@ -2208,13 +2670,21 @@
       <c r="E65" t="n">
         <v>0</v>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
@@ -2228,22 +2698,30 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>39.61976990699311</v>
+        <v>39.35793962401891</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>22.33553026199324</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+        <v>1.746336239368583e-10</v>
+      </c>
+      <c r="F66" t="n">
+        <v>16.63144005980927</v>
+      </c>
+      <c r="G66" t="n">
+        <v>31.35191250300099</v>
+      </c>
       <c r="H66" t="n">
-        <v>47.24464633931839</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>46.07678054854758</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>176.3432515669262</v>
+      </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>30.75579808605558</v>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -2262,13 +2740,21 @@
       <c r="E67" t="n">
         <v>0</v>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
@@ -2289,13 +2775,21 @@
       <c r="E68" t="n">
         <v>0</v>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
@@ -2309,22 +2803,30 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>787.7363982897838</v>
+        <v>802.7814448843585</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>844.3708317826923</v>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+        <v>1231.349731582461</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1058.464091482331</v>
+      </c>
+      <c r="G69" t="n">
+        <v>740.0225688666079</v>
+      </c>
       <c r="H69" t="n">
-        <v>338.8363974049706</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>337.4663824510857</v>
+      </c>
+      <c r="I69" t="n">
+        <v>851.5844142712293</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="n">
-        <v>734.0703691188222</v>
+        <v>411.9704034043643</v>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
@@ -2343,13 +2845,21 @@
       <c r="E70" t="n">
         <v>0</v>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
@@ -2370,13 +2880,21 @@
       <c r="E71" t="n">
         <v>0</v>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>987.5389270769846</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
@@ -2397,13 +2915,21 @@
       <c r="E72" t="n">
         <v>0</v>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
@@ -2424,13 +2950,21 @@
       <c r="E73" t="n">
         <v>0</v>
       </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
@@ -2451,13 +2985,21 @@
       <c r="E74" t="n">
         <v>0</v>
       </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
@@ -2478,13 +3020,21 @@
       <c r="E75" t="n">
         <v>0</v>
       </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
       <c r="H75" t="n">
-        <v>496.8094804021705</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>496.8094804014871</v>
+      </c>
+      <c r="I75" t="n">
+        <v>305.5972325343301</v>
+      </c>
+      <c r="J75" t="n">
+        <v>99.26319206264394</v>
+      </c>
       <c r="K75" t="n">
         <v>499</v>
       </c>
@@ -2505,13 +3055,21 @@
       <c r="E76" t="n">
         <v>0</v>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
@@ -2532,13 +3090,21 @@
       <c r="E77" t="n">
         <v>0</v>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
@@ -2559,13 +3125,21 @@
       <c r="E78" t="n">
         <v>0</v>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="n">
         <v>0</v>
       </c>
@@ -2586,13 +3160,21 @@
       <c r="E79" t="n">
         <v>0</v>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="n">
         <v>0</v>
       </c>
@@ -2613,13 +3195,21 @@
       <c r="E80" t="n">
         <v>0</v>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>7.429257484088503</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>0.2974037375105262</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="n">
         <v>0</v>
       </c>
@@ -2640,13 +3230,21 @@
       <c r="E81" t="n">
         <v>0</v>
       </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
@@ -2667,13 +3265,21 @@
       <c r="E82" t="n">
         <v>0</v>
       </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
@@ -2694,13 +3300,21 @@
       <c r="E83" t="n">
         <v>0</v>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="n">
         <v>0</v>
       </c>
@@ -2714,22 +3328,30 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>72.21267060957916</v>
+        <v>71.77487025526489</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
-        <v>55.08203840973596</v>
-      </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+        <v>1.596344169729563e-10</v>
+      </c>
+      <c r="F84" t="n">
+        <v>18.05162962101437</v>
+      </c>
+      <c r="G84" t="n">
+        <v>62.96882731187432</v>
+      </c>
       <c r="H84" t="n">
-        <v>79.46302465366146</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>78.14906307484014</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.1228583202682043</v>
+      </c>
+      <c r="J84" t="n">
+        <v>195.4600848843453</v>
+      </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>62.77909304645578</v>
       </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -2741,20 +3363,28 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>64.06277066358955</v>
+        <v>64.06277066385512</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
-        <v>64.06277066365122</v>
-      </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+        <v>61.42120055537688</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>157</v>
+      </c>
       <c r="K85" t="n">
         <v>0</v>
       </c>
@@ -2775,13 +3405,21 @@
       <c r="E86" t="n">
         <v>0</v>
       </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
@@ -2802,13 +3440,21 @@
       <c r="E87" t="n">
         <v>0</v>
       </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="n">
         <v>0</v>
       </c>
@@ -2829,13 +3475,21 @@
       <c r="E88" t="n">
         <v>0</v>
       </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="n">
         <v>0</v>
       </c>
@@ -2856,13 +3510,21 @@
       <c r="E89" t="n">
         <v>0</v>
       </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="n">
         <v>0</v>
       </c>
@@ -2883,15 +3545,23 @@
       <c r="E90" t="n">
         <v>0</v>
       </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>2.722799763432704e-11</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
       <c r="H90" t="n">
-        <v>56.25169325311413</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>55.59289572185796</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>53.38060346399363</v>
       </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
@@ -2910,13 +3580,21 @@
       <c r="E91" t="n">
         <v>0</v>
       </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
@@ -2937,13 +3615,21 @@
       <c r="E92" t="n">
         <v>0</v>
       </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="n">
         <v>0</v>
       </c>
@@ -2964,13 +3650,21 @@
       <c r="E93" t="n">
         <v>0</v>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="n">
         <v>0</v>
       </c>
@@ -2991,13 +3685,21 @@
       <c r="E94" t="n">
         <v>0</v>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
@@ -3039,8 +3741,12 @@
       <c r="E96" t="n">
         <v>813</v>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>813</v>
+      </c>
+      <c r="G96" t="n">
+        <v>813</v>
+      </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3083,18 +3789,541 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+        <v>1078</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1078</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>1078</v>
+        <v>0</v>
       </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>costs_tot_interval</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>4209721081.881151</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3740305402.584683</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>size_Boiler_El_existing</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>156.5006434762796</v>
+      </c>
+      <c r="G100" t="n">
+        <v>156.5006434762796</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>size_Boiler_Industrial_NG_existing</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>168.408301132104</v>
+      </c>
+      <c r="G101" t="n">
+        <v>168.408301132104</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>size_CO2electrolysis</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>138.4675721336906</v>
+      </c>
+      <c r="G102" t="n">
+        <v>17.88039642037711</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>151.6294897513077</v>
+      </c>
+      <c r="J102" t="n">
+        <v>65.74802546197292</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>size_DirectMeOHsynthesis</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>size_MPW2methanol_existing</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>338</v>
+      </c>
+      <c r="G104" t="n">
+        <v>338</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>size_MTO_existing</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>503.7780144019245</v>
+      </c>
+      <c r="G105" t="n">
+        <v>503.7780144019245</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>size_MeOHsynthesis_existing</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>8.405849820093838</v>
+      </c>
+      <c r="G106" t="n">
+        <v>8.405849820093838</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>size_PDH_existing</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>61.42120055431899</v>
+      </c>
+      <c r="G107" t="n">
+        <v>61.42120055431899</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>size_PE_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>218</v>
+      </c>
+      <c r="G108" t="n">
+        <v>218</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>size_RWGS_existing</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>9.900883180350109</v>
+      </c>
+      <c r="G109" t="n">
+        <v>9.900883180350109</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_Battery_existing</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>852.5507511257869</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5176.904775801685</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_H2_existing</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="n">
+        <v>4.387827281361243e-10</v>
+      </c>
+      <c r="G111" t="n">
+        <v>3.655574519839243e-05</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>size_feedgas_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="n">
+        <v>1231.349731580762</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1231.349731580762</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>size_AEC_existing</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>102.0333746000568</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>size_ASU_existing</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>2.321643220495105</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>size_CO2_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>147.2480399634183</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>size_CO2electrolysis_existing</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>138.4675721336906</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>size_HBfeed_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>66.80989031224067</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_Ammonia_existing</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>1157.910541400721</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_CO2_existing</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>905.8647720865329</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_Ethylene_existing</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>5397.22602418008</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_Propylene_existing</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>1129.899138202043</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Plotting/result_data_long.xlsx
+++ b/Plotting/result_data_long.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,19 +613,11 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250414173015_2030_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250414212316_2040_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250415121806_2050_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250416112938_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Greenfield\Chemelot\20250414173206_2030_minC_DD10-1\optimization_results.h5</t>
@@ -636,11 +628,7 @@
           <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Greenfield\Chemelot\20250415015547_2040_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Greenfield\Chemelot\20250415182651_2050_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Brownfield\Chemelot\20250414173301_2030_minC_DD10-1\optimization_results.h5</t>
@@ -652,7 +640,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>costs_interval</t>
+          <t>costs_obj_interval</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -661,23 +649,17 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>4614915515.777688</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3852244493.288744</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3102207540.600353</v>
-      </c>
+        <v>4541031650.261767</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
         <v>4335623617.181549</v>
       </c>
       <c r="I6" t="n">
         <v>3740341151.089449</v>
       </c>
-      <c r="J6" t="n">
-        <v>4183573486.910211</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>4207207728.697828</v>
       </c>
@@ -694,12 +676,8 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>357476588.5924067</v>
-      </c>
-      <c r="G7" t="n">
-        <v>638097861.9843307</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -710,7 +688,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>costs_tot</t>
+          <t>costs_tot_interval</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -729,32 +707,26 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>emissions_tot</t>
+          <t>emissions_net</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1339137.346112024</v>
+        <v>537986.8514076918</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1945073.845687752</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1495009.177507547</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1296480</v>
-      </c>
+        <v>522537.2155216233</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
         <v>1585314.601209711</v>
       </c>
       <c r="I9" t="n">
         <v>792657.3006048435</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>1580778.784358503</v>
       </c>
@@ -774,18 +746,14 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>115693675496.6678</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
         <v>130068708515.4465</v>
       </c>
       <c r="I10" t="n">
         <v>112210234532.6835</v>
       </c>
-      <c r="J10" t="n">
-        <v>125507204607.3063</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -802,23 +770,17 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>102.0333746000568</v>
-      </c>
-      <c r="G11" t="n">
-        <v>90.30964689074676</v>
-      </c>
+        <v>140.5222002249128</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
         <v>282.6796352668781</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1081.8604389311</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>188.6858778285619</v>
       </c>
@@ -837,23 +799,17 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.321643220495105</v>
-      </c>
-      <c r="G12" t="n">
-        <v>25.64063637014723</v>
-      </c>
+        <v>28.25175</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
         <v>29.36413807663639</v>
       </c>
       <c r="I12" t="n">
         <v>0.1001290303683973</v>
       </c>
-      <c r="J12" t="n">
-        <v>27.92410714286028</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>28.25175</v>
       </c>
@@ -872,23 +828,17 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>156.5006434762796</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
+        <v>64.27389941323595</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>126.1411349876457</v>
       </c>
-      <c r="J13" t="n">
-        <v>289.4037348892484</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -907,23 +857,17 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>168.408301132104</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
+        <v>124.7900274942034</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
         <v>2.397682768479084</v>
       </c>
       <c r="I14" t="n">
         <v>27.51773143172308</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -944,21 +888,15 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="n">
-        <v>147.2480399634183</v>
-      </c>
-      <c r="G15" t="n">
-        <v>53.42147062346896</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>92.16160502100482</v>
       </c>
-      <c r="J15" t="n">
-        <v>109.7480254745925</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -979,21 +917,15 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -1020,9 +952,7 @@
       <c r="I17" t="n">
         <v>305.5972325343301</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1041,21 +971,15 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>99.26319205077147</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -1076,21 +1000,15 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -1109,23 +1027,17 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>733.0225688662956</v>
-      </c>
+        <v>750.2247802366085</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
         <v>718.4745866438434</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
         <v>779.2922411436635</v>
       </c>
@@ -1144,23 +1056,17 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>66.80989031224067</v>
-      </c>
-      <c r="G21" t="n">
-        <v>737.8600266036352</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
         <v>845.0111676729897</v>
       </c>
       <c r="I21" t="n">
         <v>2.88141094585068</v>
       </c>
-      <c r="J21" t="n">
-        <v>803.5714285714286</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>813</v>
       </c>
@@ -1181,21 +1087,15 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
         <v>845.0111676729897</v>
       </c>
       <c r="I22" t="n">
         <v>806.2873059944878</v>
       </c>
-      <c r="J22" t="n">
-        <v>803.5714285714286</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -1216,21 +1116,15 @@
       <c r="E23" t="n">
         <v>338</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -1249,23 +1143,17 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>503.7780144019245</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
+        <v>496.86</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
         <v>0</v>
       </c>
@@ -1284,23 +1172,17 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>8.405849820093838</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -1327,9 +1209,7 @@
       <c r="I26" t="n">
         <v>305.5972325343301</v>
       </c>
-      <c r="J26" t="n">
-        <v>99.26319205077147</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -1346,23 +1226,17 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>61.42120055431899</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
+        <v>64.06277066356222</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>157</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
         <v>0</v>
       </c>
@@ -1383,21 +1257,15 @@
       <c r="E28" t="n">
         <v>218</v>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
         <v>218</v>
       </c>
       <c r="I28" t="n">
         <v>218</v>
       </c>
-      <c r="J28" t="n">
-        <v>218</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
         <v>218</v>
       </c>
@@ -1416,23 +1284,17 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>9.900883180350109</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -1459,9 +1321,7 @@
       <c r="I30" t="n">
         <v>1055.738121448818</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -1478,23 +1338,17 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1157.910541400721</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
+        <v>4527.324722529889</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
         <v>8031.220348630261</v>
       </c>
       <c r="I31" t="n">
         <v>1362.899133837197</v>
       </c>
-      <c r="J31" t="n">
-        <v>4.551536470414898e-09</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
         <v>5247.172173913217</v>
       </c>
@@ -1513,23 +1367,17 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>852.5507511257869</v>
-      </c>
-      <c r="F32" t="n">
-        <v>4324.354024675898</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
+        <v>1638.635814200616</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
         <v>1338.884284164562</v>
       </c>
       <c r="I32" t="n">
         <v>5031.024605684076</v>
       </c>
-      <c r="J32" t="n">
-        <v>1.138687366619706e-09</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
         <v>1697.483433706402</v>
       </c>
@@ -1550,21 +1398,15 @@
       <c r="E33" t="n">
         <v>0</v>
       </c>
-      <c r="F33" t="n">
-        <v>905.8647720865329</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>164.1639291732885</v>
       </c>
-      <c r="J33" t="n">
-        <v>1.277172505624164e-08</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -1585,21 +1427,15 @@
       <c r="E34" t="n">
         <v>0</v>
       </c>
-      <c r="F34" t="n">
-        <v>5397.22602418008</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>836.3574248818412</v>
       </c>
-      <c r="J34" t="n">
-        <v>3.154346135553572e-10</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>3.844799999993449</v>
       </c>
@@ -1618,23 +1454,17 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>4.387827281361243e-10</v>
-      </c>
-      <c r="F35" t="n">
-        <v>3.655530641566429e-05</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
+        <v>166.069363141339</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
         <v>124.6378783694997</v>
       </c>
       <c r="I35" t="n">
         <v>0.3954267082367138</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>211.700613945202</v>
       </c>
@@ -1655,21 +1485,15 @@
       <c r="E36" t="n">
         <v>0</v>
       </c>
-      <c r="F36" t="n">
-        <v>1129.899138202043</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>9086.52802892159</v>
       </c>
-      <c r="J36" t="n">
-        <v>5.187387940985796e-10</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>3.844799999994738</v>
       </c>
@@ -1688,23 +1512,17 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>137.0752203779973</v>
-      </c>
+        <v>140.2920339042458</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
         <v>134.3547477023987</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>145.7276490938651</v>
       </c>
@@ -1723,23 +1541,17 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>1231.349731580762</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
+        <v>851.6175814425347</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
         <v>725.4745866438434</v>
       </c>
       <c r="I38" t="n">
         <v>1090.255852880541</v>
       </c>
-      <c r="J38" t="n">
-        <v>7</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>786.2922411436634</v>
       </c>
@@ -1760,21 +1572,15 @@
       <c r="E39" t="n">
         <v>0</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>0</v>
       </c>
@@ -1795,21 +1601,15 @@
       <c r="E40" t="n">
         <v>0</v>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>0</v>
       </c>
@@ -1830,21 +1630,15 @@
       <c r="E41" t="n">
         <v>0</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>0</v>
       </c>
@@ -1863,23 +1657,17 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>108.7140971139432</v>
-      </c>
-      <c r="F42" t="n">
-        <v>114</v>
-      </c>
-      <c r="G42" t="n">
-        <v>148</v>
-      </c>
+        <v>107.0945205148839</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
         <v>100.700063275586</v>
       </c>
       <c r="I42" t="n">
         <v>114</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>112.9486780742124</v>
       </c>
@@ -1900,21 +1688,15 @@
       <c r="E43" t="n">
         <v>0</v>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>109.748025587573</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>0</v>
       </c>
@@ -1935,21 +1717,15 @@
       <c r="E44" t="n">
         <v>0</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>0</v>
       </c>
@@ -1970,21 +1746,15 @@
       <c r="E45" t="n">
         <v>0</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>0</v>
       </c>
@@ -2005,21 +1775,15 @@
       <c r="E46" t="n">
         <v>0</v>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>0</v>
       </c>
@@ -2040,21 +1804,15 @@
       <c r="E47" t="n">
         <v>0</v>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>0</v>
       </c>
@@ -2075,21 +1833,15 @@
       <c r="E48" t="n">
         <v>0</v>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
         <v>0</v>
       </c>
@@ -2110,21 +1862,15 @@
       <c r="E49" t="n">
         <v>338</v>
       </c>
-      <c r="F49" t="n">
-        <v>338.0000000000001</v>
-      </c>
-      <c r="G49" t="n">
-        <v>338</v>
-      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>0</v>
       </c>
@@ -2145,21 +1891,15 @@
       <c r="E50" t="n">
         <v>0</v>
       </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>0</v>
       </c>
@@ -2180,21 +1920,15 @@
       <c r="E51" t="n">
         <v>0</v>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>0</v>
       </c>
@@ -2215,21 +1949,15 @@
       <c r="E52" t="n">
         <v>0</v>
       </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>0</v>
       </c>
@@ -2250,21 +1978,15 @@
       <c r="E53" t="n">
         <v>0</v>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>0</v>
       </c>
@@ -2285,21 +2007,15 @@
       <c r="E54" t="n">
         <v>0</v>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>0</v>
       </c>
@@ -2320,21 +2036,15 @@
       <c r="E55" t="n">
         <v>0</v>
       </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>0</v>
       </c>
@@ -2355,21 +2065,15 @@
       <c r="E56" t="n">
         <v>0</v>
       </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
         <v>91.22068676723228</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>70.52455300092495</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>0</v>
       </c>
@@ -2390,21 +2094,15 @@
       <c r="E57" t="n">
         <v>750</v>
       </c>
-      <c r="F57" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G57" t="n">
-        <v>2500</v>
-      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
         <v>750</v>
       </c>
       <c r="I57" t="n">
         <v>2000</v>
       </c>
-      <c r="J57" t="n">
-        <v>2500.000000144458</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>750</v>
       </c>
@@ -2425,21 +2123,15 @@
       <c r="E58" t="n">
         <v>0</v>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
         <v>0</v>
       </c>
@@ -2460,21 +2152,15 @@
       <c r="E59" t="n">
         <v>0</v>
       </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>0</v>
       </c>
@@ -2495,21 +2181,15 @@
       <c r="E60" t="n">
         <v>0</v>
       </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>0</v>
       </c>
@@ -2530,21 +2210,15 @@
       <c r="E61" t="n">
         <v>0</v>
       </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>0</v>
       </c>
@@ -2565,21 +2239,15 @@
       <c r="E62" t="n">
         <v>0</v>
       </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>0</v>
       </c>
@@ -2600,21 +2268,15 @@
       <c r="E63" t="n">
         <v>0</v>
       </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>0</v>
       </c>
@@ -2635,21 +2297,15 @@
       <c r="E64" t="n">
         <v>0</v>
       </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>0</v>
       </c>
@@ -2670,21 +2326,15 @@
       <c r="E65" t="n">
         <v>0</v>
       </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
         <v>0</v>
       </c>
@@ -2703,23 +2353,17 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>1.746336239368583e-10</v>
-      </c>
-      <c r="F66" t="n">
-        <v>16.63144005980927</v>
-      </c>
-      <c r="G66" t="n">
-        <v>31.35191250300099</v>
-      </c>
+        <v>22.9051186366608</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
         <v>46.07678054854758</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>176.3432515669262</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>30.75579808605558</v>
       </c>
@@ -2740,21 +2384,15 @@
       <c r="E67" t="n">
         <v>0</v>
       </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
         <v>0</v>
       </c>
@@ -2775,21 +2413,15 @@
       <c r="E68" t="n">
         <v>0</v>
       </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
         <v>0</v>
       </c>
@@ -2808,23 +2440,17 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>1231.349731582461</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1058.464091482331</v>
-      </c>
-      <c r="G69" t="n">
-        <v>740.0225688666079</v>
-      </c>
+        <v>851.6175814425347</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
         <v>337.4663824510857</v>
       </c>
       <c r="I69" t="n">
         <v>851.5844142712293</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
         <v>411.9704034043643</v>
       </c>
@@ -2845,21 +2471,15 @@
       <c r="E70" t="n">
         <v>0</v>
       </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
         <v>0</v>
       </c>
@@ -2880,21 +2500,15 @@
       <c r="E71" t="n">
         <v>0</v>
       </c>
-      <c r="F71" t="n">
-        <v>987.5389270769846</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>0</v>
       </c>
@@ -2915,21 +2529,15 @@
       <c r="E72" t="n">
         <v>0</v>
       </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>0</v>
       </c>
@@ -2950,21 +2558,15 @@
       <c r="E73" t="n">
         <v>0</v>
       </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
         <v>0</v>
       </c>
@@ -2985,21 +2587,15 @@
       <c r="E74" t="n">
         <v>0</v>
       </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>0</v>
       </c>
@@ -3020,21 +2616,15 @@
       <c r="E75" t="n">
         <v>0</v>
       </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
         <v>496.8094804014871</v>
       </c>
       <c r="I75" t="n">
         <v>305.5972325343301</v>
       </c>
-      <c r="J75" t="n">
-        <v>99.26319206264394</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
         <v>499</v>
       </c>
@@ -3055,21 +2645,15 @@
       <c r="E76" t="n">
         <v>0</v>
       </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>0</v>
       </c>
@@ -3090,21 +2674,15 @@
       <c r="E77" t="n">
         <v>0</v>
       </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>0</v>
       </c>
@@ -3125,21 +2703,15 @@
       <c r="E78" t="n">
         <v>0</v>
       </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
         <v>0</v>
       </c>
@@ -3160,21 +2732,15 @@
       <c r="E79" t="n">
         <v>0</v>
       </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>0</v>
       </c>
@@ -3195,21 +2761,15 @@
       <c r="E80" t="n">
         <v>0</v>
       </c>
-      <c r="F80" t="n">
-        <v>7.429257484088503</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0.2974037375105262</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
         <v>0</v>
       </c>
@@ -3230,21 +2790,15 @@
       <c r="E81" t="n">
         <v>0</v>
       </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
         <v>0</v>
       </c>
@@ -3265,21 +2819,15 @@
       <c r="E82" t="n">
         <v>0</v>
       </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0</v>
-      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>0</v>
       </c>
@@ -3300,21 +2848,15 @@
       <c r="E83" t="n">
         <v>0</v>
       </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>0</v>
       </c>
@@ -3333,23 +2875,17 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
-        <v>1.596344169729563e-10</v>
-      </c>
-      <c r="F84" t="n">
-        <v>18.05162962101437</v>
-      </c>
-      <c r="G84" t="n">
-        <v>62.96882731187432</v>
-      </c>
+        <v>55.60270508351208</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
         <v>78.14906307484014</v>
       </c>
       <c r="I84" t="n">
         <v>0.1228583202682043</v>
       </c>
-      <c r="J84" t="n">
-        <v>195.4600848843453</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>62.77909304645578</v>
       </c>
@@ -3368,23 +2904,17 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
-        <v>61.42120055537688</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0</v>
-      </c>
+        <v>64.06277066385586</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>157</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>0</v>
       </c>
@@ -3405,21 +2935,15 @@
       <c r="E86" t="n">
         <v>0</v>
       </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0</v>
-      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>0</v>
       </c>
@@ -3440,21 +2964,15 @@
       <c r="E87" t="n">
         <v>0</v>
       </c>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0</v>
-      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>0</v>
       </c>
@@ -3475,21 +2993,15 @@
       <c r="E88" t="n">
         <v>0</v>
       </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0</v>
-      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>0</v>
       </c>
@@ -3510,21 +3022,15 @@
       <c r="E89" t="n">
         <v>0</v>
       </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0</v>
-      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>0</v>
       </c>
@@ -3545,21 +3051,15 @@
       <c r="E90" t="n">
         <v>0</v>
       </c>
-      <c r="F90" t="n">
-        <v>2.722799763432704e-11</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0</v>
-      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
         <v>55.59289572185796</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>53.38060346399363</v>
       </c>
@@ -3580,21 +3080,15 @@
       <c r="E91" t="n">
         <v>0</v>
       </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0</v>
-      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>0</v>
       </c>
@@ -3615,21 +3109,15 @@
       <c r="E92" t="n">
         <v>0</v>
       </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0</v>
-      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>0</v>
       </c>
@@ -3650,21 +3138,15 @@
       <c r="E93" t="n">
         <v>0</v>
       </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0</v>
-      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>0</v>
       </c>
@@ -3685,21 +3167,15 @@
       <c r="E94" t="n">
         <v>0</v>
       </c>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0</v>
-      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>0</v>
       </c>
@@ -3741,12 +3217,8 @@
       <c r="E96" t="n">
         <v>813</v>
       </c>
-      <c r="F96" t="n">
-        <v>813</v>
-      </c>
-      <c r="G96" t="n">
-        <v>813</v>
-      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3789,14 +3261,10 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>1078</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1078</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3809,21 +3277,19 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>costs_tot_interval</t>
+          <t>size_CO2electrolysis</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="n">
-        <v>4209721081.881151</v>
-      </c>
-      <c r="G99" t="n">
-        <v>3740305402.584683</v>
-      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>151.6294897513077</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
@@ -3832,498 +3298,23 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_El_existing</t>
+          <t>size_DirectMeOHsynthesis</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="n">
-        <v>156.5006434762796</v>
-      </c>
-      <c r="G100" t="n">
-        <v>156.5006434762796</v>
-      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>size_Boiler_Industrial_NG_existing</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="n">
-        <v>168.408301132104</v>
-      </c>
-      <c r="G101" t="n">
-        <v>168.408301132104</v>
-      </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>size_CO2electrolysis</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="n">
-        <v>138.4675721336906</v>
-      </c>
-      <c r="G102" t="n">
-        <v>17.88039642037711</v>
-      </c>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="n">
-        <v>151.6294897513077</v>
-      </c>
-      <c r="J102" t="n">
-        <v>65.74802546197292</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>size_DirectMeOHsynthesis</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>size_MPW2methanol_existing</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="n">
-        <v>338</v>
-      </c>
-      <c r="G104" t="n">
-        <v>338</v>
-      </c>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>size_MTO_existing</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="n">
-        <v>503.7780144019245</v>
-      </c>
-      <c r="G105" t="n">
-        <v>503.7780144019245</v>
-      </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>size_MeOHsynthesis_existing</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="n">
-        <v>8.405849820093838</v>
-      </c>
-      <c r="G106" t="n">
-        <v>8.405849820093838</v>
-      </c>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t>size_PDH_existing</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="n">
-        <v>61.42120055431899</v>
-      </c>
-      <c r="G107" t="n">
-        <v>61.42120055431899</v>
-      </c>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="inlineStr">
-        <is>
-          <t>size_PE_mixer_existing</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="n">
-        <v>218</v>
-      </c>
-      <c r="G108" t="n">
-        <v>218</v>
-      </c>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="inlineStr">
-        <is>
-          <t>size_RWGS_existing</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="n">
-        <v>9.900883180350109</v>
-      </c>
-      <c r="G109" t="n">
-        <v>9.900883180350109</v>
-      </c>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <t>size_Storage_Battery_existing</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="n">
-        <v>852.5507511257869</v>
-      </c>
-      <c r="G110" t="n">
-        <v>5176.904775801685</v>
-      </c>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <t>size_Storage_H2_existing</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="n">
-        <v>4.387827281361243e-10</v>
-      </c>
-      <c r="G111" t="n">
-        <v>3.655574519839243e-05</v>
-      </c>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>size_feedgas_mixer_existing</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="n">
-        <v>1231.349731580762</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1231.349731580762</v>
-      </c>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>size_AEC_existing</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="n">
-        <v>102.0333746000568</v>
-      </c>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t>size_ASU_existing</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="n">
-        <v>2.321643220495105</v>
-      </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="inlineStr">
-        <is>
-          <t>size_CO2_mixer_existing</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="n">
-        <v>147.2480399634183</v>
-      </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="inlineStr">
-        <is>
-          <t>size_CO2electrolysis_existing</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="n">
-        <v>138.4675721336906</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="inlineStr">
-        <is>
-          <t>size_HBfeed_mixer_existing</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="n">
-        <v>66.80989031224067</v>
-      </c>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>size_Storage_Ammonia_existing</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="n">
-        <v>1157.910541400721</v>
-      </c>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>size_Storage_CO2_existing</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="n">
-        <v>905.8647720865329</v>
-      </c>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>size_Storage_Ethylene_existing</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="n">
-        <v>5397.22602418008</v>
-      </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>size_Storage_Propylene_existing</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="n">
-        <v>1129.899138202043</v>
-      </c>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Plotting/result_data_long.xlsx
+++ b/Plotting/result_data_long.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,15 +609,27 @@
           <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\Chemelot\20250414172927_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\Chemelot\20250422090637_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250416112938_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250422091252_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250422153650_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Greenfield\Chemelot\20250414173206_2030_minC_DD10-1\optimization_results.h5</t>
@@ -628,12 +640,12 @@
           <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Greenfield\Chemelot\20250415015547_2040_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Brownfield\Chemelot\20250414173301_2030_minC_DD10-1\optimization_results.h5</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Greenfield\Chemelot\20250422092243_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
     </row>
@@ -646,23 +658,29 @@
       <c r="B6" t="n">
         <v>4588155971.300325</v>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>4058616185.129568</v>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>4541031650.261767</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>3882296012.12909</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3077616961.227675</v>
+      </c>
       <c r="H6" t="n">
         <v>4335623617.181549</v>
       </c>
       <c r="I6" t="n">
         <v>3740341151.089449</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>4207207728.697828</v>
-      </c>
+      <c r="J6" t="n">
+        <v>4145601469.212524</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
     </row>
@@ -676,8 +694,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>401131241.043464</v>
+      </c>
+      <c r="G7" t="n">
+        <v>718445680.3034747</v>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -694,9 +716,15 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4541031650.261767</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4283427253.172554</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3796062641.53115</v>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -707,53 +735,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>emissions_net</t>
+          <t>costs_tot_cumulative</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>537986.8514076918</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>137644679139.0098</v>
+      </c>
+      <c r="C9" t="n">
+        <v>121758485553.887</v>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>522537.2155216233</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>122193903039.2201</v>
+      </c>
       <c r="H9" t="n">
-        <v>1585314.601209711</v>
+        <v>130068708515.4465</v>
       </c>
       <c r="I9" t="n">
-        <v>792657.3006048435</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>1580778.784358503</v>
-      </c>
+        <v>112210234532.6835</v>
+      </c>
+      <c r="J9" t="n">
+        <v>124368044076.3757</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>costs_tot_cumulative</t>
+          <t>emissions_net</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>137644679139.0098</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>537986.8514076918</v>
+      </c>
+      <c r="C10" t="n">
+        <v>268993.4257000078</v>
+      </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>522537.2155216233</v>
+      </c>
+      <c r="F10" t="n">
+        <v>261268.6077499893</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-6.984919309616089e-10</v>
+      </c>
       <c r="H10" t="n">
-        <v>130068708515.4465</v>
+        <v>1585314.601209711</v>
       </c>
       <c r="I10" t="n">
-        <v>112210234532.6835</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>792657.3006048435</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -767,23 +807,29 @@
       <c r="B11" t="n">
         <v>241.4597522945946</v>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>465.1666706762738</v>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>140.5222002249128</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>133.6941885882321</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
       <c r="H11" t="n">
         <v>282.6796352668781</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>188.6858778285619</v>
-      </c>
+      <c r="J11" t="n">
+        <v>1277.301659373517</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
     </row>
@@ -796,23 +842,29 @@
       <c r="B12" t="n">
         <v>29.17470836460497</v>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>10.23851460762035</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
         <v>28.25175</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
       <c r="H12" t="n">
         <v>29.36413807663639</v>
       </c>
       <c r="I12" t="n">
         <v>0.1001290303683973</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>28.25175</v>
-      </c>
+      <c r="J12" t="n">
+        <v>27.92665043793396</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
     </row>
@@ -825,23 +877,29 @@
       <c r="B13" t="n">
         <v>65.3596136989397</v>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>138.9147767852318</v>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
         <v>64.27389941323595</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>51.02539135171091</v>
+      </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>126.1411349876457</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
     </row>
@@ -854,23 +912,29 @@
       <c r="B14" t="n">
         <v>128.2926375707695</v>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>0.1861040299176682</v>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
         <v>124.7900274942034</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
       <c r="H14" t="n">
         <v>2.397682768479084</v>
       </c>
       <c r="I14" t="n">
         <v>27.51773143172308</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
     </row>
@@ -883,23 +947,29 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>160.4369904663895</v>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>129.5851882841922</v>
+      </c>
+      <c r="G15" t="n">
+        <v>64.35864636982095</v>
+      </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>92.16160502100482</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="n">
+        <v>55.67753542372878</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
     </row>
@@ -912,23 +982,29 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
     </row>
@@ -941,7 +1017,9 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -952,7 +1030,9 @@
       <c r="I17" t="n">
         <v>305.5972325343301</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -966,23 +1046,29 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="n">
+        <v>480.8519360653743</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
     </row>
@@ -995,23 +1081,29 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
     </row>
@@ -1024,23 +1116,29 @@
       <c r="B20" t="n">
         <v>691.5746768003698</v>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
         <v>750.2247802366085</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
       <c r="H20" t="n">
         <v>718.4745866438434</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>779.2922411436635</v>
-      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
     </row>
@@ -1053,23 +1151,29 @@
       <c r="B21" t="n">
         <v>839.5599529382724</v>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>294.6335138883553</v>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
         <v>813</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
       <c r="H21" t="n">
         <v>845.0111676729897</v>
       </c>
       <c r="I21" t="n">
         <v>2.88141094585068</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>813</v>
-      </c>
+      <c r="J21" t="n">
+        <v>803.644616919011</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
     </row>
@@ -1082,23 +1186,29 @@
       <c r="B22" t="n">
         <v>839.5599529382724</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>824.2886091158343</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
       <c r="H22" t="n">
         <v>845.0111676729897</v>
       </c>
       <c r="I22" t="n">
         <v>806.2873059944878</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="n">
+        <v>803.644616919011</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
     </row>
@@ -1111,23 +1221,29 @@
       <c r="B23" t="n">
         <v>338</v>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>328.0738354896167</v>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
         <v>338</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
     </row>
@@ -1140,23 +1256,29 @@
       <c r="B24" t="n">
         <v>496.86</v>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>482.2685381697365</v>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
         <v>496.86</v>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
     </row>
@@ -1169,23 +1291,29 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
         <v>0</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
     </row>
@@ -1198,7 +1326,9 @@
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -1209,7 +1339,9 @@
       <c r="I26" t="n">
         <v>305.5972325343301</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>480.851936065374</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -1223,23 +1355,29 @@
       <c r="B27" t="n">
         <v>64.06277066356277</v>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
         <v>64.06277066356222</v>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
     </row>
@@ -1252,23 +1390,29 @@
       <c r="B28" t="n">
         <v>218</v>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>218</v>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
         <v>218</v>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
       <c r="H28" t="n">
         <v>218</v>
       </c>
       <c r="I28" t="n">
         <v>218</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+      <c r="J28" t="n">
         <v>218</v>
       </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
     </row>
@@ -1281,23 +1425,29 @@
       <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
     </row>
@@ -1310,7 +1460,9 @@
       <c r="B30" t="n">
         <v>0</v>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>695.9988110742169</v>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -1321,7 +1473,9 @@
       <c r="I30" t="n">
         <v>1055.738121448818</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -1335,23 +1489,29 @@
       <c r="B31" t="n">
         <v>7224.929599974984</v>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>5735.240118739349</v>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
         <v>4527.324722529889</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>4589.228877469824</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
       <c r="H31" t="n">
         <v>8031.220348630261</v>
       </c>
       <c r="I31" t="n">
         <v>1362.899133837197</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>5247.172173913217</v>
-      </c>
+      <c r="J31" t="n">
+        <v>76.10909367582423</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
     </row>
@@ -1364,23 +1524,29 @@
       <c r="B32" t="n">
         <v>1211.820683122364</v>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>5822.564647685514</v>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
         <v>1638.635814200616</v>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>6414</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
       <c r="H32" t="n">
         <v>1338.884284164562</v>
       </c>
       <c r="I32" t="n">
         <v>5031.024605684076</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>1697.483433706402</v>
-      </c>
+      <c r="J32" t="n">
+        <v>-9.620954020219218e-12</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
     </row>
@@ -1393,23 +1559,29 @@
       <c r="B33" t="n">
         <v>0</v>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>3863.466090635284</v>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
         <v>0</v>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>9813.150185612183</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>164.1639291732885</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="n">
+        <v>-8.964411993122974e-11</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
     </row>
@@ -1422,23 +1594,29 @@
       <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>3273.6970139631</v>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
         <v>0</v>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>1365.207206316135</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>836.3574248818412</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>3.844799999993449</v>
-      </c>
+      <c r="J34" t="n">
+        <v>79.52372235661126</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
     </row>
@@ -1451,23 +1629,29 @@
       <c r="B35" t="n">
         <v>161.736827521127</v>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>0.7170356792428301</v>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
         <v>166.069363141339</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>8341.835870451305</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
       <c r="H35" t="n">
         <v>124.6378783694997</v>
       </c>
       <c r="I35" t="n">
         <v>0.3954267082367138</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>211.700613945202</v>
-      </c>
+      <c r="J35" t="n">
+        <v>-1.1032238324706e-10</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
     </row>
@@ -1480,23 +1664,29 @@
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>3020.962648652026</v>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
         <v>0</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>4448.725206689643</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>9086.52802892159</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>3.844799999994738</v>
-      </c>
+      <c r="J36" t="n">
+        <v>130.6922726624625</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
     </row>
@@ -1509,23 +1699,29 @@
       <c r="B37" t="n">
         <v>129.3244645616691</v>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
         <v>140.2920339042458</v>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
       <c r="H37" t="n">
         <v>134.3547477023987</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>145.7276490938651</v>
-      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
     </row>
@@ -1538,23 +1734,29 @@
       <c r="B38" t="n">
         <v>802.7814448842365</v>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>703.1849151041346</v>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
         <v>851.6175814425347</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
       <c r="H38" t="n">
         <v>725.4745866438434</v>
       </c>
       <c r="I38" t="n">
         <v>1090.255852880541</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>786.2922411436634</v>
-      </c>
+      <c r="J38" t="n">
+        <v>7</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
     </row>
@@ -1567,23 +1769,29 @@
       <c r="B39" t="n">
         <v>0</v>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
         <v>0</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
     </row>
@@ -1596,23 +1804,29 @@
       <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
         <v>0</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
     </row>
@@ -1625,23 +1839,29 @@
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
     </row>
@@ -1654,23 +1874,29 @@
       <c r="B42" t="n">
         <v>95.28244833291771</v>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>114</v>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
         <v>107.0945205148839</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>114</v>
+      </c>
+      <c r="G42" t="n">
+        <v>148</v>
+      </c>
       <c r="H42" t="n">
         <v>100.700063275586</v>
       </c>
       <c r="I42" t="n">
         <v>114</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>112.9486780742124</v>
-      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
     </row>
@@ -1683,23 +1909,29 @@
       <c r="B43" t="n">
         <v>0</v>
       </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
         <v>0</v>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="n">
+        <v>55.67753543597797</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
     </row>
@@ -1712,23 +1944,29 @@
       <c r="B44" t="n">
         <v>0</v>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
         <v>0</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
     </row>
@@ -1741,23 +1979,29 @@
       <c r="B45" t="n">
         <v>0</v>
       </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
         <v>0</v>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
     </row>
@@ -1770,23 +2014,29 @@
       <c r="B46" t="n">
         <v>0</v>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
         <v>0</v>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
     </row>
@@ -1799,23 +2049,29 @@
       <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
         <v>0</v>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
     </row>
@@ -1828,23 +2084,29 @@
       <c r="B48" t="n">
         <v>0</v>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
         <v>0</v>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
     </row>
@@ -1857,23 +2119,29 @@
       <c r="B49" t="n">
         <v>338</v>
       </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>328.0738354896167</v>
+      </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
         <v>338</v>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>338</v>
+      </c>
+      <c r="G49" t="n">
+        <v>338</v>
+      </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
     </row>
@@ -1886,23 +2154,29 @@
       <c r="B50" t="n">
         <v>0</v>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
         <v>0</v>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
     </row>
@@ -1915,23 +2189,29 @@
       <c r="B51" t="n">
         <v>0</v>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
         <v>0</v>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
     </row>
@@ -1944,23 +2224,29 @@
       <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
         <v>0</v>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
     </row>
@@ -1973,23 +2259,29 @@
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
         <v>0</v>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
     </row>
@@ -2002,23 +2294,29 @@
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
         <v>0</v>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
     </row>
@@ -2031,23 +2329,29 @@
       <c r="B55" t="n">
         <v>0</v>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
         <v>0</v>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
     </row>
@@ -2060,23 +2364,29 @@
       <c r="B56" t="n">
         <v>0</v>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
         <v>0</v>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="H56" t="n">
         <v>91.22068676723228</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="n">
+        <v>372.1453988827569</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
     </row>
@@ -2089,23 +2399,29 @@
       <c r="B57" t="n">
         <v>750</v>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>2000</v>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
         <v>750</v>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2500.000000001289</v>
+      </c>
       <c r="H57" t="n">
         <v>750</v>
       </c>
       <c r="I57" t="n">
         <v>2000</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>750</v>
-      </c>
+      <c r="J57" t="n">
+        <v>2500.000000007237</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
     </row>
@@ -2118,23 +2434,29 @@
       <c r="B58" t="n">
         <v>0</v>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
         <v>0</v>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
     </row>
@@ -2147,23 +2469,29 @@
       <c r="B59" t="n">
         <v>0</v>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
         <v>0</v>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
     </row>
@@ -2176,23 +2504,29 @@
       <c r="B60" t="n">
         <v>0</v>
       </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
         <v>0</v>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
     </row>
@@ -2205,23 +2539,29 @@
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
         <v>0</v>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
     </row>
@@ -2234,23 +2574,29 @@
       <c r="B62" t="n">
         <v>0</v>
       </c>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
         <v>0</v>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
     </row>
@@ -2263,23 +2609,29 @@
       <c r="B63" t="n">
         <v>0</v>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
         <v>0</v>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
     </row>
@@ -2292,23 +2644,29 @@
       <c r="B64" t="n">
         <v>0</v>
       </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
         <v>0</v>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
     </row>
@@ -2321,23 +2679,29 @@
       <c r="B65" t="n">
         <v>0</v>
       </c>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
         <v>0</v>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
     </row>
@@ -2350,23 +2714,29 @@
       <c r="B66" t="n">
         <v>39.35793962401891</v>
       </c>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="n">
+        <v>75.82216732023264</v>
+      </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
         <v>22.9051186366608</v>
       </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>44.69727137654262</v>
+      </c>
+      <c r="G66" t="n">
+        <v>44.69727137654262</v>
+      </c>
       <c r="H66" t="n">
         <v>46.07678054854758</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>30.75579808605558</v>
-      </c>
+      <c r="J66" t="n">
+        <v>208.200170478013</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
     </row>
@@ -2379,23 +2749,29 @@
       <c r="B67" t="n">
         <v>0</v>
       </c>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
         <v>0</v>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
     </row>
@@ -2408,23 +2784,29 @@
       <c r="B68" t="n">
         <v>0</v>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
         <v>0</v>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
     </row>
@@ -2437,23 +2819,29 @@
       <c r="B69" t="n">
         <v>802.7814448843585</v>
       </c>
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" t="n">
+        <v>703.1849151041346</v>
+      </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
         <v>851.6175814425347</v>
       </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>757.2247802366086</v>
+      </c>
+      <c r="G69" t="n">
+        <v>757.2247802366086</v>
+      </c>
       <c r="H69" t="n">
         <v>337.4663824510857</v>
       </c>
       <c r="I69" t="n">
         <v>851.5844142712293</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>411.9704034043643</v>
-      </c>
+      <c r="J69" t="n">
+        <v>3.600036815699374</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
     </row>
@@ -2466,23 +2854,29 @@
       <c r="B70" t="n">
         <v>0</v>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
         <v>0</v>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
     </row>
@@ -2495,23 +2889,29 @@
       <c r="B71" t="n">
         <v>0</v>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
         <v>0</v>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
     </row>
@@ -2524,23 +2924,29 @@
       <c r="B72" t="n">
         <v>0</v>
       </c>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
         <v>0</v>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
     </row>
@@ -2553,23 +2959,29 @@
       <c r="B73" t="n">
         <v>0</v>
       </c>
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
         <v>0</v>
       </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
     </row>
@@ -2582,23 +2994,29 @@
       <c r="B74" t="n">
         <v>0</v>
       </c>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
         <v>0</v>
       </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
     </row>
@@ -2611,23 +3029,29 @@
       <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
         <v>0</v>
       </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
       <c r="H75" t="n">
         <v>496.8094804014871</v>
       </c>
       <c r="I75" t="n">
         <v>305.5972325343301</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>499</v>
-      </c>
+      <c r="J75" t="n">
+        <v>480.8519360653744</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
     </row>
@@ -2640,23 +3064,29 @@
       <c r="B76" t="n">
         <v>0</v>
       </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
         <v>0</v>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
     </row>
@@ -2669,23 +3099,29 @@
       <c r="B77" t="n">
         <v>0</v>
       </c>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
         <v>0</v>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
     </row>
@@ -2698,23 +3134,29 @@
       <c r="B78" t="n">
         <v>0</v>
       </c>
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
         <v>0</v>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
     </row>
@@ -2727,23 +3169,29 @@
       <c r="B79" t="n">
         <v>0</v>
       </c>
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
         <v>0</v>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
     </row>
@@ -2756,23 +3204,29 @@
       <c r="B80" t="n">
         <v>0</v>
       </c>
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" t="n">
+        <v>24.56951476961811</v>
+      </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
         <v>0</v>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0.2974037375105262</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
     </row>
@@ -2785,23 +3239,29 @@
       <c r="B81" t="n">
         <v>0</v>
       </c>
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
         <v>0</v>
       </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
     </row>
@@ -2814,23 +3274,29 @@
       <c r="B82" t="n">
         <v>0</v>
       </c>
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
         <v>0</v>
       </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
     </row>
@@ -2843,23 +3309,29 @@
       <c r="B83" t="n">
         <v>0</v>
       </c>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
         <v>0</v>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
     </row>
@@ -2872,23 +3344,29 @@
       <c r="B84" t="n">
         <v>71.77487025526489</v>
       </c>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>81.87249135431496</v>
+      </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
         <v>55.60270508351208</v>
       </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>75.52313918315861</v>
+      </c>
+      <c r="G84" t="n">
+        <v>75.52313918315859</v>
+      </c>
       <c r="H84" t="n">
         <v>78.14906307484014</v>
       </c>
       <c r="I84" t="n">
         <v>0.1228583202682043</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>62.77909304645578</v>
-      </c>
+      <c r="J84" t="n">
+        <v>224.5839473341176</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
     </row>
@@ -2901,23 +3379,29 @@
       <c r="B85" t="n">
         <v>64.06277066385512</v>
       </c>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
         <v>64.06277066385586</v>
       </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
     </row>
@@ -2930,23 +3414,29 @@
       <c r="B86" t="n">
         <v>0</v>
       </c>
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
         <v>0</v>
       </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
     </row>
@@ -2959,23 +3449,29 @@
       <c r="B87" t="n">
         <v>0</v>
       </c>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
         <v>0</v>
       </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
     </row>
@@ -2988,23 +3484,29 @@
       <c r="B88" t="n">
         <v>0</v>
       </c>
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
         <v>0</v>
       </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
     </row>
@@ -3017,23 +3519,29 @@
       <c r="B89" t="n">
         <v>0</v>
       </c>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
         <v>0</v>
       </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
     </row>
@@ -3046,23 +3554,29 @@
       <c r="B90" t="n">
         <v>0</v>
       </c>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
         <v>0</v>
       </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>92.682</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
       <c r="H90" t="n">
         <v>55.59289572185796</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>53.38060346399363</v>
-      </c>
+      <c r="J90" t="n">
+        <v>115.6580831321342</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
     </row>
@@ -3075,23 +3589,29 @@
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
         <v>0</v>
       </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
     </row>
@@ -3104,23 +3624,29 @@
       <c r="B92" t="n">
         <v>0</v>
       </c>
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
         <v>0</v>
       </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
     </row>
@@ -3133,23 +3659,29 @@
       <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
         <v>0</v>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
     </row>
@@ -3162,76 +3694,94 @@
       <c r="B94" t="n">
         <v>0</v>
       </c>
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
         <v>0</v>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace_existing</t>
+          <t>size_CO2electrolysis</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" t="n">
+        <v>106.4562506298236</v>
+      </c>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>111.1724125179555</v>
+      </c>
+      <c r="G95" t="n">
+        <v>39.78106601603671</v>
+      </c>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>499</v>
-      </c>
+      <c r="I95" t="n">
+        <v>151.6294897513077</v>
+      </c>
+      <c r="J95" t="n">
+        <v>11.67753542373834</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>size_HaberBosch_existing</t>
+          <t>size_DirectMeOHsynthesis</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="n">
-        <v>813</v>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>813</v>
-      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>size_OlefinSeparation_existing</t>
+          <t>size_CrackerFurnace_existing</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -3245,51 +3795,51 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>499</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>size_SteamReformer_existing</t>
+          <t>size_HaberBosch_existing</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+        <v>813</v>
+      </c>
+      <c r="F98" t="n">
+        <v>813</v>
+      </c>
+      <c r="G98" t="n">
+        <v>813</v>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>size_CO2electrolysis</t>
+          <t>size_OlefinSeparation_existing</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="n">
-        <v>151.6294897513077</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
@@ -3298,23 +3848,473 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>size_DirectMeOHsynthesis</t>
+          <t>size_SteamReformer_existing</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>size_AEC_existing</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>140.5222002249128</v>
+      </c>
+      <c r="G101" t="n">
+        <v>274.2163888131449</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>size_ASU_existing</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>28.25175</v>
+      </c>
+      <c r="G102" t="n">
+        <v>28.25175</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>size_Boiler_El_existing</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>64.27389941323595</v>
+      </c>
+      <c r="G103" t="n">
+        <v>64.27389941323595</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>size_Boiler_Industrial_NG_existing</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>124.7900274942034</v>
+      </c>
+      <c r="G104" t="n">
+        <v>124.7900274942034</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>size_ElectricSMR_m_existing</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>750.2247802366085</v>
+      </c>
+      <c r="G105" t="n">
+        <v>750.2247802366085</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>size_HBfeed_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>813</v>
+      </c>
+      <c r="G106" t="n">
+        <v>813</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>size_MPW2methanol_existing</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>338</v>
+      </c>
+      <c r="G107" t="n">
+        <v>338</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>size_MTO_existing</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>496.86</v>
+      </c>
+      <c r="G108" t="n">
+        <v>496.86</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>size_PDH_existing</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>64.06277066356222</v>
+      </c>
+      <c r="G109" t="n">
+        <v>64.06277066356222</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>size_PE_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>218</v>
+      </c>
+      <c r="G110" t="n">
+        <v>218</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_Ammonia_existing</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="n">
+        <v>4527.324722529889</v>
+      </c>
+      <c r="G111" t="n">
+        <v>9116.553599999712</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_Battery_existing</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="n">
+        <v>1638.635814200616</v>
+      </c>
+      <c r="G112" t="n">
+        <v>8052.635814200616</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_H2_existing</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>166.069363141339</v>
+      </c>
+      <c r="G113" t="n">
+        <v>8507.905233592644</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>size_WGS_m_existing</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="n">
+        <v>140.2920339042458</v>
+      </c>
+      <c r="G114" t="n">
+        <v>140.2920339042458</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>size_feedgas_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="n">
+        <v>851.6175814425347</v>
+      </c>
+      <c r="G115" t="n">
+        <v>851.6175814425347</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>size_CO2_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>129.5851882841922</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>size_CO2electrolysis_existing</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>111.1724125179555</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_CO2_existing</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>9813.150185612183</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_Ethylene_existing</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>1365.207206316135</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_Propylene_existing</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>4448.725206689643</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Plotting/result_data_long.xlsx
+++ b/Plotting/result_data_long.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,7 +614,11 @@
           <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\Chemelot\20250422090637_2040_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Greenfield\Chemelot\20250423151113_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionLimit Brownfield\Chemelot\20250416112938_2030_minC_DD10-1\optimization_results.h5</t>
@@ -645,9 +649,21 @@
           <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Greenfield\Chemelot\20250422092243_2050_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Brownfield\Chemelot\20250423110222_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Brownfield\Chemelot\20250423162730_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\MY\EmissionScope Brownfield\Chemelot\20250426164252_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -661,7 +677,9 @@
       <c r="C6" t="n">
         <v>4058616185.129568</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>3327661021.24606</v>
+      </c>
       <c r="E6" t="n">
         <v>4541031650.261767</v>
       </c>
@@ -680,9 +698,15 @@
       <c r="J6" t="n">
         <v>4145601469.212524</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>4234459195.868593</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4034789598.546146</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3957807264.45573</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -704,8 +728,12 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>18701073.99577388</v>
+      </c>
+      <c r="M7" t="n">
+        <v>520583364.3133165</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -728,9 +756,15 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>4234459195.868593</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4053490672.54192</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4478390628.769047</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -744,7 +778,9 @@
       <c r="C9" t="n">
         <v>121758485553.887</v>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>99829830637.38179</v>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
@@ -761,7 +797,9 @@
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>127476394231.8379</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -775,7 +813,9 @@
       <c r="C10" t="n">
         <v>268993.4257000078</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
       <c r="E10" t="n">
         <v>522537.2155216233</v>
       </c>
@@ -794,9 +834,15 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>2125515.334001312</v>
+      </c>
+      <c r="L10" t="n">
+        <v>925980.2200084254</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -810,7 +856,9 @@
       <c r="C11" t="n">
         <v>465.1666706762738</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>190.6939783359936</v>
+      </c>
       <c r="E11" t="n">
         <v>140.5222002249128</v>
       </c>
@@ -829,9 +877,15 @@
       <c r="J11" t="n">
         <v>1277.301659373517</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1026.498066774457</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -845,7 +899,9 @@
       <c r="C12" t="n">
         <v>10.23851460762035</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>27.9256466488213</v>
+      </c>
       <c r="E12" t="n">
         <v>28.25175</v>
       </c>
@@ -864,9 +920,15 @@
       <c r="J12" t="n">
         <v>27.92665043793396</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>27.92581366160655</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -880,7 +942,9 @@
       <c r="C13" t="n">
         <v>138.9147767852318</v>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>123.7363892061704</v>
+      </c>
       <c r="E13" t="n">
         <v>64.27389941323595</v>
       </c>
@@ -899,9 +963,15 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>41.59677723356639</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>362.924775899478</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -915,7 +985,9 @@
       <c r="C14" t="n">
         <v>0.1861040299176682</v>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
       <c r="E14" t="n">
         <v>124.7900274942034</v>
       </c>
@@ -934,9 +1006,15 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>44.30601663477577</v>
+      </c>
+      <c r="L14" t="n">
+        <v>413.1272700336363</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -950,7 +1028,9 @@
       <c r="C15" t="n">
         <v>160.4369904663895</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>220.73212099268</v>
+      </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
@@ -969,9 +1049,15 @@
       <c r="J15" t="n">
         <v>55.67753542372878</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>63.76725947358676</v>
+      </c>
+      <c r="M15" t="n">
+        <v>58.91407355860478</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -985,7 +1071,9 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
@@ -1004,9 +1092,15 @@
       <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>6.522996057621048</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1020,7 +1114,9 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1049,7 +1145,9 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
@@ -1068,9 +1166,15 @@
       <c r="J18" t="n">
         <v>480.8519360653743</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1084,7 +1188,9 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
@@ -1103,9 +1209,15 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1119,7 +1231,9 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>732.9997582129956</v>
+      </c>
       <c r="E20" t="n">
         <v>750.2247802366085</v>
       </c>
@@ -1138,9 +1252,15 @@
       <c r="J20" t="n">
         <v>0</v>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1154,7 +1274,9 @@
       <c r="C21" t="n">
         <v>294.6335138883553</v>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>803.6157427006674</v>
+      </c>
       <c r="E21" t="n">
         <v>813</v>
       </c>
@@ -1173,9 +1295,15 @@
       <c r="J21" t="n">
         <v>803.644616919011</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>803.6205370246488</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1189,7 +1317,9 @@
       <c r="C22" t="n">
         <v>824.2886091158343</v>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>803.6157427006674</v>
+      </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
@@ -1208,9 +1338,15 @@
       <c r="J22" t="n">
         <v>803.644616919011</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1224,7 +1360,9 @@
       <c r="C23" t="n">
         <v>328.0738354896167</v>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>256.6658767599931</v>
+      </c>
       <c r="E23" t="n">
         <v>338</v>
       </c>
@@ -1243,9 +1381,15 @@
       <c r="J23" t="n">
         <v>0</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1259,7 +1403,9 @@
       <c r="C24" t="n">
         <v>482.2685381697365</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>377.2988388371899</v>
+      </c>
       <c r="E24" t="n">
         <v>496.86</v>
       </c>
@@ -1278,9 +1424,15 @@
       <c r="J24" t="n">
         <v>0</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>16.15068032936597</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1294,7 +1446,9 @@
       <c r="C25" t="n">
         <v>0</v>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
@@ -1313,9 +1467,15 @@
       <c r="J25" t="n">
         <v>0</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>19.62415592875574</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1329,7 +1489,9 @@
       <c r="C26" t="n">
         <v>0</v>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1358,7 +1520,9 @@
       <c r="C27" t="n">
         <v>0</v>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
       <c r="E27" t="n">
         <v>64.06277066356222</v>
       </c>
@@ -1377,9 +1541,15 @@
       <c r="J27" t="n">
         <v>0</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>139.4422956017326</v>
+      </c>
+      <c r="M27" t="n">
+        <v>62.22827334226069</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1393,7 +1563,9 @@
       <c r="C28" t="n">
         <v>218</v>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>218</v>
+      </c>
       <c r="E28" t="n">
         <v>218</v>
       </c>
@@ -1412,9 +1584,15 @@
       <c r="J28" t="n">
         <v>218</v>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>218</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1428,7 +1606,9 @@
       <c r="C29" t="n">
         <v>0</v>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
@@ -1447,9 +1627,15 @@
       <c r="J29" t="n">
         <v>0</v>
       </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>23.11443572291606</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1463,7 +1649,9 @@
       <c r="C30" t="n">
         <v>695.9988110742169</v>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1492,7 +1680,9 @@
       <c r="C31" t="n">
         <v>5735.240118739349</v>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>135.1558286350344</v>
+      </c>
       <c r="E31" t="n">
         <v>4527.324722529889</v>
       </c>
@@ -1511,9 +1701,15 @@
       <c r="J31" t="n">
         <v>76.10909367582423</v>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>28.51199999999994</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1128.663540338653</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1527,7 +1723,9 @@
       <c r="C32" t="n">
         <v>5822.564647685514</v>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>1.223978279842899</v>
+      </c>
       <c r="E32" t="n">
         <v>1638.635814200616</v>
       </c>
@@ -1546,9 +1744,15 @@
       <c r="J32" t="n">
         <v>-9.620954020219218e-12</v>
       </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>751.9801491116556</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4350.515467440772</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1562,7 +1766,9 @@
       <c r="C33" t="n">
         <v>3863.466090635284</v>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>49.81125772464533</v>
+      </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
@@ -1581,9 +1787,15 @@
       <c r="J33" t="n">
         <v>-8.964411993122974e-11</v>
       </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>6.654402102528422</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4817.099911685627</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1597,7 +1809,9 @@
       <c r="C34" t="n">
         <v>3273.6970139631</v>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>48.98932345440607</v>
+      </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
@@ -1616,9 +1830,15 @@
       <c r="J34" t="n">
         <v>79.52372235661126</v>
       </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>6.728399999930161</v>
+      </c>
+      <c r="L34" t="n">
+        <v>500</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1632,7 +1852,9 @@
       <c r="C35" t="n">
         <v>0.7170356792428301</v>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>0.0005963225118775655</v>
+      </c>
       <c r="E35" t="n">
         <v>166.069363141339</v>
       </c>
@@ -1651,9 +1873,15 @@
       <c r="J35" t="n">
         <v>-1.1032238324706e-10</v>
       </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1667,7 +1895,9 @@
       <c r="C36" t="n">
         <v>3020.962648652026</v>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>19.50685241530496</v>
+      </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
@@ -1686,9 +1916,15 @@
       <c r="J36" t="n">
         <v>130.6922726624625</v>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>5.767199999987153</v>
+      </c>
+      <c r="L36" t="n">
+        <v>9251.587161827001</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1702,7 +1938,9 @@
       <c r="C37" t="n">
         <v>0</v>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>137.0709547858302</v>
+      </c>
       <c r="E37" t="n">
         <v>140.2920339042458</v>
       </c>
@@ -1721,9 +1959,15 @@
       <c r="J37" t="n">
         <v>0</v>
       </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1737,7 +1981,9 @@
       <c r="C38" t="n">
         <v>703.1849151041346</v>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>739.9997582129955</v>
+      </c>
       <c r="E38" t="n">
         <v>851.6175814425347</v>
       </c>
@@ -1756,9 +2002,15 @@
       <c r="J38" t="n">
         <v>7</v>
       </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1119.63715986734</v>
+      </c>
+      <c r="L38" t="n">
+        <v>413.1272700336604</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1772,7 +2024,9 @@
       <c r="C39" t="n">
         <v>0</v>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
@@ -1791,9 +2045,15 @@
       <c r="J39" t="n">
         <v>0</v>
       </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1807,7 +2067,9 @@
       <c r="C40" t="n">
         <v>0</v>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
@@ -1826,9 +2088,15 @@
       <c r="J40" t="n">
         <v>0</v>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1842,7 +2110,9 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
@@ -1861,9 +2131,15 @@
       <c r="J41" t="n">
         <v>0</v>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1877,7 +2153,9 @@
       <c r="C42" t="n">
         <v>114</v>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>148</v>
+      </c>
       <c r="E42" t="n">
         <v>107.0945205148839</v>
       </c>
@@ -1896,9 +2174,15 @@
       <c r="J42" t="n">
         <v>0</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>114</v>
+      </c>
+      <c r="L42" t="n">
+        <v>82.93318857778478</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1912,7 +2196,9 @@
       <c r="C43" t="n">
         <v>0</v>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
@@ -1931,9 +2217,15 @@
       <c r="J43" t="n">
         <v>55.67753543597797</v>
       </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>122.6813330321915</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1947,7 +2239,9 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
@@ -1966,9 +2260,15 @@
       <c r="J44" t="n">
         <v>0</v>
       </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1982,7 +2282,9 @@
       <c r="C45" t="n">
         <v>0</v>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
@@ -2001,9 +2303,15 @@
       <c r="J45" t="n">
         <v>0</v>
       </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2017,7 +2325,9 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
@@ -2036,9 +2346,15 @@
       <c r="J46" t="n">
         <v>0</v>
       </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2052,7 +2368,9 @@
       <c r="C47" t="n">
         <v>0</v>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
@@ -2071,9 +2389,15 @@
       <c r="J47" t="n">
         <v>0</v>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2087,7 +2411,9 @@
       <c r="C48" t="n">
         <v>0</v>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
@@ -2106,9 +2432,15 @@
       <c r="J48" t="n">
         <v>0</v>
       </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2122,7 +2454,9 @@
       <c r="C49" t="n">
         <v>328.0738354896167</v>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>256.6658767599931</v>
+      </c>
       <c r="E49" t="n">
         <v>338</v>
       </c>
@@ -2141,9 +2475,15 @@
       <c r="J49" t="n">
         <v>0</v>
       </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2157,7 +2497,9 @@
       <c r="C50" t="n">
         <v>0</v>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
@@ -2176,9 +2518,15 @@
       <c r="J50" t="n">
         <v>0</v>
       </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2192,7 +2540,9 @@
       <c r="C51" t="n">
         <v>0</v>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
@@ -2211,9 +2561,15 @@
       <c r="J51" t="n">
         <v>0</v>
       </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2227,7 +2583,9 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
@@ -2246,9 +2604,15 @@
       <c r="J52" t="n">
         <v>0</v>
       </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2262,7 +2626,9 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
@@ -2281,9 +2647,15 @@
       <c r="J53" t="n">
         <v>0</v>
       </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2297,7 +2669,9 @@
       <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
@@ -2316,9 +2690,15 @@
       <c r="J54" t="n">
         <v>0</v>
       </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2332,7 +2712,9 @@
       <c r="C55" t="n">
         <v>0</v>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
@@ -2351,9 +2733,15 @@
       <c r="J55" t="n">
         <v>0</v>
       </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2367,7 +2755,9 @@
       <c r="C56" t="n">
         <v>0</v>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
@@ -2386,9 +2776,15 @@
       <c r="J56" t="n">
         <v>372.1453988827569</v>
       </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2402,7 +2798,9 @@
       <c r="C57" t="n">
         <v>2000</v>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>2500.000004299729</v>
+      </c>
       <c r="E57" t="n">
         <v>750</v>
       </c>
@@ -2421,9 +2819,15 @@
       <c r="J57" t="n">
         <v>2500.000000007237</v>
       </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>750</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2500.000000007921</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2437,7 +2841,9 @@
       <c r="C58" t="n">
         <v>0</v>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
@@ -2456,9 +2862,15 @@
       <c r="J58" t="n">
         <v>0</v>
       </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2472,7 +2884,9 @@
       <c r="C59" t="n">
         <v>0</v>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
@@ -2491,9 +2905,15 @@
       <c r="J59" t="n">
         <v>0</v>
       </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2507,7 +2927,9 @@
       <c r="C60" t="n">
         <v>0</v>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
@@ -2526,9 +2948,15 @@
       <c r="J60" t="n">
         <v>0</v>
       </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2542,7 +2970,9 @@
       <c r="C61" t="n">
         <v>0</v>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
@@ -2561,9 +2991,15 @@
       <c r="J61" t="n">
         <v>0</v>
       </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2577,7 +3013,9 @@
       <c r="C62" t="n">
         <v>0</v>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
@@ -2596,9 +3034,15 @@
       <c r="J62" t="n">
         <v>0</v>
       </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2612,7 +3056,9 @@
       <c r="C63" t="n">
         <v>0</v>
       </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
@@ -2631,9 +3077,15 @@
       <c r="J63" t="n">
         <v>0</v>
       </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2647,7 +3099,9 @@
       <c r="C64" t="n">
         <v>0</v>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
@@ -2666,9 +3120,15 @@
       <c r="J64" t="n">
         <v>0</v>
       </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2682,7 +3142,9 @@
       <c r="C65" t="n">
         <v>0</v>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
@@ -2701,9 +3163,15 @@
       <c r="J65" t="n">
         <v>0</v>
       </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2717,7 +3185,9 @@
       <c r="C66" t="n">
         <v>75.82216732023264</v>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>31.08311857282024</v>
+      </c>
       <c r="E66" t="n">
         <v>22.9051186366608</v>
       </c>
@@ -2736,9 +3206,15 @@
       <c r="J66" t="n">
         <v>208.200170478013</v>
       </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>167.3191848842364</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2752,7 +3228,9 @@
       <c r="C67" t="n">
         <v>0</v>
       </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
@@ -2771,9 +3249,15 @@
       <c r="J67" t="n">
         <v>0</v>
       </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2787,7 +3271,9 @@
       <c r="C68" t="n">
         <v>0</v>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
@@ -2806,9 +3292,15 @@
       <c r="J68" t="n">
         <v>0</v>
       </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2822,7 +3314,9 @@
       <c r="C69" t="n">
         <v>703.1849151041346</v>
       </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>739.9997598422402</v>
+      </c>
       <c r="E69" t="n">
         <v>851.6175814425347</v>
       </c>
@@ -2841,9 +3335,15 @@
       <c r="J69" t="n">
         <v>3.600036815699374</v>
       </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>733.9114905600854</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1532.764429901001</v>
+      </c>
+      <c r="M69" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2857,7 +3357,9 @@
       <c r="C70" t="n">
         <v>0</v>
       </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
@@ -2876,9 +3378,15 @@
       <c r="J70" t="n">
         <v>0</v>
       </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2892,7 +3400,9 @@
       <c r="C71" t="n">
         <v>0</v>
       </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
@@ -2911,9 +3421,15 @@
       <c r="J71" t="n">
         <v>0</v>
       </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2927,7 +3443,9 @@
       <c r="C72" t="n">
         <v>0</v>
       </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
@@ -2946,9 +3464,15 @@
       <c r="J72" t="n">
         <v>0</v>
       </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2962,7 +3486,9 @@
       <c r="C73" t="n">
         <v>0</v>
       </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
@@ -2981,9 +3507,15 @@
       <c r="J73" t="n">
         <v>0</v>
       </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2997,7 +3529,9 @@
       <c r="C74" t="n">
         <v>0</v>
       </c>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
@@ -3016,9 +3550,15 @@
       <c r="J74" t="n">
         <v>0</v>
       </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -3032,7 +3572,9 @@
       <c r="C75" t="n">
         <v>0</v>
       </c>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
@@ -3051,9 +3593,15 @@
       <c r="J75" t="n">
         <v>480.8519360653744</v>
       </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>499</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -3067,7 +3615,9 @@
       <c r="C76" t="n">
         <v>0</v>
       </c>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
@@ -3086,9 +3636,15 @@
       <c r="J76" t="n">
         <v>0</v>
       </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -3102,7 +3658,9 @@
       <c r="C77" t="n">
         <v>0</v>
       </c>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
@@ -3121,9 +3679,15 @@
       <c r="J77" t="n">
         <v>0</v>
       </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -3137,7 +3701,9 @@
       <c r="C78" t="n">
         <v>0</v>
       </c>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
@@ -3156,9 +3722,15 @@
       <c r="J78" t="n">
         <v>0</v>
       </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -3172,7 +3744,9 @@
       <c r="C79" t="n">
         <v>0</v>
       </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
@@ -3191,9 +3765,15 @@
       <c r="J79" t="n">
         <v>0</v>
       </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -3207,7 +3787,9 @@
       <c r="C80" t="n">
         <v>24.56951476961811</v>
       </c>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
@@ -3226,9 +3808,15 @@
       <c r="J80" t="n">
         <v>0</v>
       </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -3242,7 +3830,9 @@
       <c r="C81" t="n">
         <v>0</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
@@ -3261,9 +3851,15 @@
       <c r="J81" t="n">
         <v>0</v>
       </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -3277,7 +3873,9 @@
       <c r="C82" t="n">
         <v>0</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
@@ -3296,9 +3894,15 @@
       <c r="J82" t="n">
         <v>0</v>
       </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -3312,7 +3916,9 @@
       <c r="C83" t="n">
         <v>0</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
@@ -3331,9 +3937,15 @@
       <c r="J83" t="n">
         <v>0</v>
       </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -3347,7 +3959,9 @@
       <c r="C84" t="n">
         <v>81.87249135431496</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>62.67817180838598</v>
+      </c>
       <c r="E84" t="n">
         <v>55.60270508351208</v>
       </c>
@@ -3366,9 +3980,15 @@
       <c r="J84" t="n">
         <v>224.5839473341176</v>
       </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>187.2131853144176</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -3382,7 +4002,9 @@
       <c r="C85" t="n">
         <v>0</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.828169869926391e-07</v>
+      </c>
       <c r="E85" t="n">
         <v>64.06277066385586</v>
       </c>
@@ -3401,9 +4023,15 @@
       <c r="J85" t="n">
         <v>0</v>
       </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>139.4422956022084</v>
+      </c>
+      <c r="M85" t="n">
+        <v>201.6705689439933</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -3417,7 +4045,9 @@
       <c r="C86" t="n">
         <v>0</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
@@ -3436,9 +4066,15 @@
       <c r="J86" t="n">
         <v>0</v>
       </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -3452,7 +4088,9 @@
       <c r="C87" t="n">
         <v>0</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
@@ -3471,9 +4109,15 @@
       <c r="J87" t="n">
         <v>0</v>
       </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -3487,7 +4131,9 @@
       <c r="C88" t="n">
         <v>0</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
@@ -3506,9 +4152,15 @@
       <c r="J88" t="n">
         <v>0</v>
       </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -3522,7 +4174,9 @@
       <c r="C89" t="n">
         <v>0</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
@@ -3541,9 +4195,15 @@
       <c r="J89" t="n">
         <v>0</v>
       </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -3557,7 +4217,9 @@
       <c r="C90" t="n">
         <v>0</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>4.180236601314391e-08</v>
+      </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
@@ -3576,9 +4238,15 @@
       <c r="J90" t="n">
         <v>115.6580831321342</v>
       </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -3592,7 +4260,9 @@
       <c r="C91" t="n">
         <v>0</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
@@ -3611,9 +4281,15 @@
       <c r="J91" t="n">
         <v>0</v>
       </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -3627,7 +4303,9 @@
       <c r="C92" t="n">
         <v>0</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
@@ -3646,9 +4324,15 @@
       <c r="J92" t="n">
         <v>0</v>
       </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -3662,7 +4346,9 @@
       <c r="C93" t="n">
         <v>0</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
@@ -3681,9 +4367,15 @@
       <c r="J93" t="n">
         <v>0</v>
       </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -3697,7 +4389,9 @@
       <c r="C94" t="n">
         <v>0</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
@@ -3716,9 +4410,15 @@
       <c r="J94" t="n">
         <v>0</v>
       </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3730,7 +4430,9 @@
       <c r="C95" t="n">
         <v>106.4562506298236</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>156.575247234887</v>
+      </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
         <v>111.1724125179555</v>
@@ -3746,8 +4448,12 @@
         <v>11.67753542373834</v>
       </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>161.3511675354761</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3759,7 +4465,9 @@
       <c r="C96" t="n">
         <v>0</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
         <v>0</v>
@@ -3775,8 +4483,12 @@
         <v>0</v>
       </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3795,8 +4507,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>499</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
       <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -3820,9 +4536,15 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>813</v>
+      </c>
+      <c r="L98" t="n">
+        <v>813</v>
+      </c>
+      <c r="M98" t="n">
+        <v>813</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -3841,8 +4563,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>499</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
       <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -3862,9 +4588,15 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1078</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1078</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -3932,8 +4664,12 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>41.59677723356639</v>
+      </c>
+      <c r="M103" t="n">
+        <v>41.59677723356639</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -3955,8 +4691,12 @@
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>44.30601663477577</v>
+      </c>
+      <c r="M104" t="n">
+        <v>457.4332866684121</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -4048,7 +4788,9 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>16.15068032936597</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -4071,7 +4813,9 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>139.4422956017326</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -4093,8 +4837,12 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>218</v>
+      </c>
+      <c r="M110" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -4116,8 +4864,12 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>28.51199999999994</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1157.175540338653</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -4139,8 +4891,12 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>751.9801491116556</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5102.495616552428</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -4208,8 +4964,12 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1119.63715986734</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1532.764429901001</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -4230,7 +4990,9 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>63.76725947358676</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -4251,7 +5013,9 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>161.3511675354761</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -4271,8 +5035,12 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>6.654402102528422</v>
+      </c>
+      <c r="M118" t="n">
+        <v>4823.754313788156</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -4292,8 +5060,12 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>6.728399999930161</v>
+      </c>
+      <c r="M119" t="n">
+        <v>506.7283999999302</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -4313,8 +5085,77 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>5.767199999987153</v>
+      </c>
+      <c r="M120" t="n">
+        <v>9257.354361826989</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>size_CO2toEmission_existing</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>6.522996057621048</v>
+      </c>
+      <c r="M121" t="n">
+        <v>6.522996057621048</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>size_MeOHsynthesis_existing</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>19.62415592875574</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>size_RWGS_existing</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>23.11443572291606</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
